--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2398"/>
+  <dimension ref="A1:H2376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68847,10 +68847,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H2112" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2112" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2113">
@@ -68881,10 +68879,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2114">
@@ -68915,10 +68911,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H2114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2114" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2115">
@@ -68945,10 +68939,8 @@
       </c>
       <c r="F2115" t="inlineStr"/>
       <c r="G2115" t="inlineStr"/>
-      <c r="H2115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2116">
@@ -68975,10 +68967,8 @@
       </c>
       <c r="F2116" t="inlineStr"/>
       <c r="G2116" t="inlineStr"/>
-      <c r="H2116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2117">
@@ -69005,10 +68995,8 @@
       </c>
       <c r="F2117" t="inlineStr"/>
       <c r="G2117" t="inlineStr"/>
-      <c r="H2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2118">
@@ -69043,10 +69031,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H2118" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2118" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2119">
@@ -69077,10 +69063,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H2119" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2119" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2120">
@@ -69111,10 +69095,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H2120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2121">
@@ -69141,10 +69123,8 @@
       </c>
       <c r="F2121" t="inlineStr"/>
       <c r="G2121" t="inlineStr"/>
-      <c r="H2121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2122">
@@ -69171,10 +69151,8 @@
       </c>
       <c r="F2122" t="inlineStr"/>
       <c r="G2122" t="inlineStr"/>
-      <c r="H2122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2123">
@@ -69201,10 +69179,8 @@
       </c>
       <c r="F2123" t="inlineStr"/>
       <c r="G2123" t="inlineStr"/>
-      <c r="H2123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2124">
@@ -69231,10 +69207,8 @@
       </c>
       <c r="F2124" t="inlineStr"/>
       <c r="G2124" t="inlineStr"/>
-      <c r="H2124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2125">
@@ -69253,10 +69227,8 @@
       <c r="E2125" t="inlineStr"/>
       <c r="F2125" t="inlineStr"/>
       <c r="G2125" t="inlineStr"/>
-      <c r="H2125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2126">
@@ -69287,10 +69259,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H2126" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2126" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2127">
@@ -69321,10 +69291,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2128">
@@ -69369,10 +69337,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H2129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2130">
@@ -69403,10 +69369,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H2130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2131">
@@ -69433,10 +69397,8 @@
       </c>
       <c r="F2131" t="inlineStr"/>
       <c r="G2131" t="inlineStr"/>
-      <c r="H2131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2132">
@@ -69467,10 +69429,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2133">
@@ -69501,10 +69461,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H2133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2133" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2134">
@@ -69535,10 +69493,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H2134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2135">
@@ -69569,10 +69525,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2136">
@@ -69603,10 +69557,8 @@
           <t>88</t>
         </is>
       </c>
-      <c r="H2136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2136" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2137">
@@ -69637,10 +69589,8 @@
           <t>11.70%</t>
         </is>
       </c>
-      <c r="H2137" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2137" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2138">
@@ -69667,10 +69617,8 @@
       </c>
       <c r="F2138" t="inlineStr"/>
       <c r="G2138" t="inlineStr"/>
-      <c r="H2138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2139">
@@ -69693,10 +69641,8 @@
       <c r="E2139" t="inlineStr"/>
       <c r="F2139" t="inlineStr"/>
       <c r="G2139" t="inlineStr"/>
-      <c r="H2139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2140">
@@ -69719,10 +69665,8 @@
       <c r="E2140" t="inlineStr"/>
       <c r="F2140" t="inlineStr"/>
       <c r="G2140" t="inlineStr"/>
-      <c r="H2140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2141">
@@ -69745,10 +69689,8 @@
       <c r="E2141" t="inlineStr"/>
       <c r="F2141" t="inlineStr"/>
       <c r="G2141" t="inlineStr"/>
-      <c r="H2141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2141" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2142">
@@ -69775,10 +69717,8 @@
       </c>
       <c r="F2142" t="inlineStr"/>
       <c r="G2142" t="inlineStr"/>
-      <c r="H2142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2142" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2143">
@@ -69813,10 +69753,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2143" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2144">
@@ -69847,10 +69785,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2144" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2145">
@@ -69881,10 +69817,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2146">
@@ -69915,10 +69849,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2147">
@@ -69945,10 +69877,8 @@
       </c>
       <c r="F2147" t="inlineStr"/>
       <c r="G2147" t="inlineStr"/>
-      <c r="H2147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2148">
@@ -69979,10 +69909,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H2148" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2148" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2149">
@@ -70013,10 +69941,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H2149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2149" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2150">
@@ -70047,10 +69973,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2150" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2151">
@@ -70081,10 +70005,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2151" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2152">
@@ -70115,10 +70037,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2152" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2153">
@@ -70153,10 +70073,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H2153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2153" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2154">
@@ -70187,10 +70105,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H2154" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2154" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2155">
@@ -70221,10 +70137,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H2155" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2155" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2156">
@@ -70255,10 +70169,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H2156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2156" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2157">
@@ -70289,10 +70201,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H2157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2157" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2158">
@@ -70323,10 +70233,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H2158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2158" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2159">
@@ -70353,10 +70261,8 @@
       </c>
       <c r="F2159" t="inlineStr"/>
       <c r="G2159" t="inlineStr"/>
-      <c r="H2159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2159" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2160">
@@ -70383,10 +70289,8 @@
       </c>
       <c r="F2160" t="inlineStr"/>
       <c r="G2160" t="inlineStr"/>
-      <c r="H2160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2160" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2161">
@@ -70413,10 +70317,8 @@
       </c>
       <c r="F2161" t="inlineStr"/>
       <c r="G2161" t="inlineStr"/>
-      <c r="H2161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2161" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2162">
@@ -70443,10 +70345,8 @@
       </c>
       <c r="F2162" t="inlineStr"/>
       <c r="G2162" t="inlineStr"/>
-      <c r="H2162" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2162" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2163">
@@ -70487,10 +70387,8 @@
       </c>
       <c r="F2164" t="inlineStr"/>
       <c r="G2164" t="inlineStr"/>
-      <c r="H2164" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2164" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2165">
@@ -70521,10 +70419,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2165" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2165" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2166">
@@ -70555,10 +70451,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2166" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2166" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2167">
@@ -70589,10 +70483,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2167" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2168">
@@ -70623,10 +70515,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2168" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2168" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2169">
@@ -70657,10 +70547,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2169" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2169" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2170">
@@ -70691,10 +70579,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H2170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2170" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2171">
@@ -70725,10 +70611,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2171" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2172">
@@ -70759,10 +70643,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2172" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2173">
@@ -70789,10 +70671,8 @@
       </c>
       <c r="F2173" t="inlineStr"/>
       <c r="G2173" t="inlineStr"/>
-      <c r="H2173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2174">
@@ -70823,10 +70703,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H2174" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2174" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2175">
@@ -70857,10 +70735,8 @@
           <t>-22</t>
         </is>
       </c>
-      <c r="H2175" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2175" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2176">
@@ -70891,10 +70767,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2176" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2176" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2177">
@@ -70925,10 +70799,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H2177" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2177" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2178">
@@ -70959,10 +70831,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2179">
@@ -70993,10 +70863,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2180">
@@ -71027,10 +70895,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2181">
@@ -71061,10 +70927,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H2181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2182">
@@ -71095,10 +70959,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2183">
@@ -71125,10 +70987,8 @@
       </c>
       <c r="F2183" t="inlineStr"/>
       <c r="G2183" t="inlineStr"/>
-      <c r="H2183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2184">
@@ -71155,10 +71015,8 @@
       </c>
       <c r="F2184" t="inlineStr"/>
       <c r="G2184" t="inlineStr"/>
-      <c r="H2184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2184" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2185">
@@ -71185,10 +71043,8 @@
       </c>
       <c r="F2185" t="inlineStr"/>
       <c r="G2185" t="inlineStr"/>
-      <c r="H2185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2186">
@@ -71219,10 +71075,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2187">
@@ -71249,10 +71103,8 @@
       </c>
       <c r="F2187" t="inlineStr"/>
       <c r="G2187" t="inlineStr"/>
-      <c r="H2187" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2187" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2188">
@@ -71279,10 +71131,8 @@
       </c>
       <c r="F2188" t="inlineStr"/>
       <c r="G2188" t="inlineStr"/>
-      <c r="H2188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2188" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2189">
@@ -71309,10 +71159,8 @@
       </c>
       <c r="F2189" t="inlineStr"/>
       <c r="G2189" t="inlineStr"/>
-      <c r="H2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2190">
@@ -71339,10 +71187,8 @@
       </c>
       <c r="F2190" t="inlineStr"/>
       <c r="G2190" t="inlineStr"/>
-      <c r="H2190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2191">
@@ -71369,10 +71215,8 @@
       </c>
       <c r="F2191" t="inlineStr"/>
       <c r="G2191" t="inlineStr"/>
-      <c r="H2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2192">
@@ -71403,10 +71247,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H2192" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2192" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2193">
@@ -71437,10 +71279,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2193" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2193" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2194">
@@ -71471,10 +71311,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2194" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2194" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2195">
@@ -71497,10 +71335,8 @@
       <c r="E2195" t="inlineStr"/>
       <c r="F2195" t="inlineStr"/>
       <c r="G2195" t="inlineStr"/>
-      <c r="H2195" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2195" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2196">
@@ -71535,10 +71371,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2196" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2196" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2197">
@@ -71561,10 +71395,8 @@
       <c r="E2197" t="inlineStr"/>
       <c r="F2197" t="inlineStr"/>
       <c r="G2197" t="inlineStr"/>
-      <c r="H2197" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2197" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2198">
@@ -71591,10 +71423,8 @@
       </c>
       <c r="F2198" t="inlineStr"/>
       <c r="G2198" t="inlineStr"/>
-      <c r="H2198" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2198" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2199">
@@ -71621,10 +71451,8 @@
       </c>
       <c r="F2199" t="inlineStr"/>
       <c r="G2199" t="inlineStr"/>
-      <c r="H2199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2199" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2200">
@@ -71647,10 +71475,8 @@
       <c r="E2200" t="inlineStr"/>
       <c r="F2200" t="inlineStr"/>
       <c r="G2200" t="inlineStr"/>
-      <c r="H2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2201">
@@ -71673,10 +71499,8 @@
       <c r="E2201" t="inlineStr"/>
       <c r="F2201" t="inlineStr"/>
       <c r="G2201" t="inlineStr"/>
-      <c r="H2201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2202">
@@ -71699,10 +71523,8 @@
       <c r="E2202" t="inlineStr"/>
       <c r="F2202" t="inlineStr"/>
       <c r="G2202" t="inlineStr"/>
-      <c r="H2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2203">
@@ -71725,10 +71547,8 @@
       <c r="E2203" t="inlineStr"/>
       <c r="F2203" t="inlineStr"/>
       <c r="G2203" t="inlineStr"/>
-      <c r="H2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2204">
@@ -71751,10 +71571,8 @@
       <c r="E2204" t="inlineStr"/>
       <c r="F2204" t="inlineStr"/>
       <c r="G2204" t="inlineStr"/>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -71777,10 +71595,8 @@
       <c r="E2205" t="inlineStr"/>
       <c r="F2205" t="inlineStr"/>
       <c r="G2205" t="inlineStr"/>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2206">
@@ -71803,10 +71619,8 @@
       <c r="E2206" t="inlineStr"/>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2207">
@@ -71837,10 +71651,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2208">
@@ -71871,10 +71683,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2209">
@@ -71901,10 +71711,8 @@
       </c>
       <c r="F2209" t="inlineStr"/>
       <c r="G2209" t="inlineStr"/>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2210">
@@ -71953,10 +71761,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2212">
@@ -71979,10 +71785,8 @@
       <c r="E2212" t="inlineStr"/>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2213">
@@ -72013,10 +71817,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2214">
@@ -72043,10 +71845,8 @@
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -72073,10 +71873,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -72107,10 +71905,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -72133,10 +71929,8 @@
       <c r="E2217" t="inlineStr"/>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2218">
@@ -72167,10 +71961,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -72201,10 +71993,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -72235,10 +72025,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2221">
@@ -72265,10 +72053,8 @@
       </c>
       <c r="F2221" t="inlineStr"/>
       <c r="G2221" t="inlineStr"/>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -72299,10 +72085,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -72333,10 +72117,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2224">
@@ -72367,10 +72149,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2225">
@@ -72401,10 +72181,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -72435,10 +72213,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -72469,10 +72245,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2228">
@@ -72503,10 +72277,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2229">
@@ -72537,10 +72309,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -72571,10 +72341,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -72605,10 +72373,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2232">
@@ -72639,10 +72405,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2233">
@@ -72673,10 +72437,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2234">
@@ -72707,10 +72469,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2235">
@@ -72741,10 +72501,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2236">
@@ -72775,10 +72533,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2237">
@@ -72809,10 +72565,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -72839,10 +72593,8 @@
       </c>
       <c r="F2238" t="inlineStr"/>
       <c r="G2238" t="inlineStr"/>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -72873,10 +72625,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2240">
@@ -72907,10 +72657,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2241">
@@ -72941,10 +72689,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2242">
@@ -72975,10 +72721,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2243">
@@ -73009,10 +72753,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2244">
@@ -73043,10 +72785,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2245">
@@ -73077,10 +72817,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2246">
@@ -73107,10 +72845,8 @@
       </c>
       <c r="F2246" t="inlineStr"/>
       <c r="G2246" t="inlineStr"/>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -73141,10 +72877,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -73175,10 +72909,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2249">
@@ -73209,10 +72941,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2250">
@@ -73243,10 +72973,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -73277,10 +73005,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -73311,10 +73037,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -73337,10 +73061,8 @@
       <c r="E2253" t="inlineStr"/>
       <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -73371,10 +73093,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -73405,10 +73125,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -73439,10 +73157,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -73465,10 +73181,8 @@
       <c r="E2257" t="inlineStr"/>
       <c r="F2257" t="inlineStr"/>
       <c r="G2257" t="inlineStr"/>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2258">
@@ -73495,10 +73209,8 @@
       </c>
       <c r="F2258" t="inlineStr"/>
       <c r="G2258" t="inlineStr"/>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -73529,10 +73241,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2260">
@@ -73563,10 +73273,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2261">
@@ -73597,10 +73305,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2262">
@@ -73631,10 +73337,8 @@
         </is>
       </c>
       <c r="G2262" t="inlineStr"/>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -73661,10 +73365,8 @@
       </c>
       <c r="F2263" t="inlineStr"/>
       <c r="G2263" t="inlineStr"/>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -73699,10 +73401,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2265">
@@ -73737,10 +73437,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2266">
@@ -73771,10 +73469,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2267">
@@ -73805,10 +73501,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -73839,10 +73533,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2269">
@@ -73873,10 +73565,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2270">
@@ -73907,10 +73597,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2271">
@@ -73941,10 +73629,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -73975,10 +73661,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -74009,10 +73693,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2274">
@@ -74043,10 +73725,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2275">
@@ -74077,10 +73757,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2276">
@@ -74111,10 +73789,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2277">
@@ -74137,10 +73813,8 @@
       <c r="E2277" t="inlineStr"/>
       <c r="F2277" t="inlineStr"/>
       <c r="G2277" t="inlineStr"/>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2278">
@@ -74171,10 +73845,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2279">
@@ -74205,10 +73877,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2279" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2280">
@@ -74235,10 +73905,8 @@
       </c>
       <c r="F2280" t="inlineStr"/>
       <c r="G2280" t="inlineStr"/>
-      <c r="H2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2281">
@@ -74265,10 +73933,8 @@
       </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
-      <c r="H2281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2282">
@@ -74291,10 +73957,8 @@
       <c r="E2282" t="inlineStr"/>
       <c r="F2282" t="inlineStr"/>
       <c r="G2282" t="inlineStr"/>
-      <c r="H2282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2283">
@@ -74321,10 +73985,8 @@
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
-      <c r="H2283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2284">
@@ -74351,10 +74013,8 @@
       </c>
       <c r="F2284" t="inlineStr"/>
       <c r="G2284" t="inlineStr"/>
-      <c r="H2284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2285">
@@ -74377,10 +74037,8 @@
       </c>
       <c r="F2285" t="inlineStr"/>
       <c r="G2285" t="inlineStr"/>
-      <c r="H2285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2286">
@@ -74407,10 +74065,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2287">
@@ -74437,10 +74093,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2288">
@@ -74467,46 +74121,72 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2289" t="inlineStr"/>
-      <c r="C2289" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr"/>
+      <c r="E2289" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F2289" t="inlineStr"/>
-      <c r="G2289" t="inlineStr"/>
-      <c r="H2289" t="inlineStr"/>
+      <c r="G2289" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H2289" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
-      <c r="E2290" t="inlineStr"/>
+      <c r="E2290" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F2290" t="inlineStr"/>
-      <c r="G2290" t="inlineStr"/>
+      <c r="G2290" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2290" t="inlineStr">
         <is>
           <t>3</t>
@@ -74516,97 +74196,101 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F2292" t="inlineStr"/>
       <c r="G2292" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-8.82B</t>
         </is>
       </c>
       <c r="H2292" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2293" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F2293" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
       <c r="G2293" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>$ 23.46B</t>
         </is>
       </c>
       <c r="H2293" t="inlineStr">
@@ -74618,29 +74302,29 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F2294" t="inlineStr"/>
       <c r="G2294" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>$32.29B</t>
         </is>
       </c>
       <c r="H2294" t="inlineStr">
@@ -74652,29 +74336,29 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$ 23.5B</t>
         </is>
       </c>
       <c r="H2295" t="inlineStr">
@@ -74686,29 +74370,29 @@
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H2296" t="inlineStr">
@@ -74720,29 +74404,29 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
@@ -74754,131 +74438,131 @@
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2298" t="inlineStr"/>
       <c r="G2298" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2298" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
       <c r="E2300" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2300" t="inlineStr"/>
       <c r="G2300" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H2301" t="inlineStr">
@@ -74890,29 +74574,29 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2302" t="inlineStr">
@@ -74924,29 +74608,29 @@
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2303" t="inlineStr">
@@ -74958,29 +74642,29 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2304" t="inlineStr">
@@ -74992,29 +74676,29 @@
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2305" t="inlineStr">
@@ -75026,23 +74710,23 @@
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
@@ -75056,59 +74740,63 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
       <c r="E2307" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr"/>
+      <c r="G2307" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H2307" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
       <c r="G2308" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2308" t="inlineStr">
@@ -75120,65 +74808,61 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
       <c r="E2309" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2309" t="inlineStr"/>
       <c r="G2309" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2309" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
         <is>
           <t>3</t>
@@ -75188,7 +74872,7 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
@@ -75198,31 +74882,27 @@
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
       <c r="E2311" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2311" t="inlineStr"/>
-      <c r="G2311" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
@@ -75232,31 +74912,27 @@
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
       <c r="E2312" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2312" t="inlineStr"/>
-      <c r="G2312" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
@@ -75266,21 +74942,17 @@
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2313" t="inlineStr"/>
-      <c r="G2313" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2313" t="inlineStr"/>
       <c r="H2313" t="inlineStr">
         <is>
           <t>3</t>
@@ -75290,7 +74962,7 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
@@ -75300,21 +74972,17 @@
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2314" t="inlineStr"/>
-      <c r="G2314" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
           <t>3</t>
@@ -75324,69 +74992,57 @@
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2316" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2316" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2316" t="inlineStr"/>
+      <c r="G2316" t="inlineStr"/>
       <c r="H2316" t="inlineStr">
         <is>
           <t>3</t>
@@ -75396,31 +75052,27 @@
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
           <t>3</t>
@@ -75430,31 +75082,27 @@
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
           <t>3</t>
@@ -75464,165 +75112,153 @@
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2320" t="inlineStr"/>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2321" t="inlineStr"/>
-      <c r="G2321" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2321" t="inlineStr"/>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
       <c r="E2322" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2322" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
       <c r="E2323" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2323" t="inlineStr">
@@ -75634,29 +75270,29 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
       <c r="E2324" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2324" t="inlineStr">
@@ -75668,31 +75304,27 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2325" t="inlineStr"/>
-      <c r="G2325" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
           <t>3</t>
@@ -75702,29 +75334,29 @@
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
       <c r="G2326" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2326" t="inlineStr">
@@ -75736,29 +75368,29 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2327" t="inlineStr">
@@ -75770,31 +75402,27 @@
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
           <t>3</t>
@@ -75804,23 +75432,23 @@
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2329" t="inlineStr"/>
@@ -75834,85 +75462,77 @@
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="E2330" t="inlineStr"/>
       <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
+      <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H2331" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
@@ -75924,7 +75544,7 @@
       <c r="F2332" t="inlineStr"/>
       <c r="G2332" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H2332" t="inlineStr">
@@ -75936,37 +75556,41 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr"/>
+      <c r="G2333" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H2333" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
@@ -75976,7 +75600,7 @@
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
@@ -75986,17 +75610,21 @@
         </is>
       </c>
       <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr"/>
+      <c r="G2334" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
@@ -76006,7 +75634,7 @@
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
@@ -76016,17 +75644,21 @@
         </is>
       </c>
       <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr"/>
+      <c r="G2335" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2335" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
@@ -76036,17 +75668,21 @@
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
-      <c r="G2336" t="inlineStr"/>
+      <c r="G2336" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2336" t="inlineStr">
         <is>
           <t>3</t>
@@ -76056,7 +75692,7 @@
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
@@ -76066,17 +75702,21 @@
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr"/>
+      <c r="G2337" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2337" t="inlineStr">
         <is>
           <t>3</t>
@@ -76086,339 +75726,383 @@
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2338" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2338" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2339" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr"/>
+      <c r="G2340" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2341" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2341" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2341" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2342" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2342" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr"/>
+      <c r="G2343" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
       <c r="E2344" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr"/>
+      <c r="G2344" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2344" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2345" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
       <c r="G2346" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2346" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2347" t="inlineStr"/>
       <c r="G2347" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2348" t="inlineStr">
         <is>
           <t>3</t>
@@ -76428,63 +76112,63 @@
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2349" t="inlineStr"/>
       <c r="G2349" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H2349" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
       <c r="G2350" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2350" t="inlineStr">
@@ -76496,25 +76180,21 @@
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
-      <c r="E2351" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E2351" t="inlineStr"/>
       <c r="F2351" t="inlineStr"/>
       <c r="G2351" t="inlineStr"/>
       <c r="H2351" t="inlineStr">
@@ -76526,25 +76206,21 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
-      <c r="E2352" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2352" t="inlineStr"/>
       <c r="F2352" t="inlineStr"/>
       <c r="G2352" t="inlineStr"/>
       <c r="H2352" t="inlineStr">
@@ -76554,25 +76230,29 @@
       </c>
     </row>
     <row r="2353">
-      <c r="A2353" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2353" t="inlineStr"/>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
-      <c r="E2353" t="inlineStr"/>
+      <c r="E2353" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F2353" t="inlineStr"/>
-      <c r="G2353" t="inlineStr"/>
+      <c r="G2353" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H2353" t="inlineStr">
         <is>
           <t>3</t>
@@ -76580,31 +76260,27 @@
       </c>
     </row>
     <row r="2354">
-      <c r="A2354" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2354" t="inlineStr"/>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2354" t="inlineStr"/>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
@@ -76614,487 +76290,395 @@
       </c>
     </row>
     <row r="2355">
-      <c r="A2355" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2355" t="inlineStr"/>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
       <c r="G2355" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2356">
-      <c r="A2356" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2356" t="inlineStr"/>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2356" t="inlineStr"/>
       <c r="G2356" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2357">
-      <c r="A2357" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2357" t="inlineStr"/>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
       <c r="G2357" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2357" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2358">
-      <c r="A2358" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2358" t="inlineStr"/>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
       <c r="G2358" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2358" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2359" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2359" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2359" t="inlineStr"/>
+      <c r="C2359" t="inlineStr"/>
       <c r="D2359" t="inlineStr"/>
-      <c r="E2359" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2359" t="inlineStr"/>
       <c r="F2359" t="inlineStr"/>
-      <c r="G2359" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2359" t="inlineStr"/>
+      <c r="H2359" t="inlineStr"/>
     </row>
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2360" t="inlineStr"/>
-      <c r="G2360" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G2360" t="inlineStr"/>
       <c r="H2360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2361" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2361" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F2361" t="inlineStr"/>
+      <c r="G2361" t="inlineStr"/>
       <c r="H2361" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2362" t="inlineStr"/>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2363" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2363" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2363" t="inlineStr"/>
+      <c r="C2363" t="inlineStr"/>
       <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2363" t="inlineStr"/>
       <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2363" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G2363" t="inlineStr"/>
+      <c r="H2363" t="inlineStr"/>
     </row>
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2364" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2364" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="F2364" t="inlineStr"/>
+      <c r="G2364" t="inlineStr"/>
       <c r="H2364" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2365" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F2365" t="inlineStr"/>
       <c r="G2365" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2365" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2366" t="inlineStr"/>
       <c r="G2366" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H2366" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
       <c r="G2367" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2367" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E2368" t="inlineStr"/>
       <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2368" t="inlineStr"/>
       <c r="H2368" t="inlineStr">
         <is>
           <t>2</t>
@@ -77104,29 +76688,29 @@
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
@@ -77138,29 +76722,29 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2370" t="inlineStr">
@@ -77172,31 +76756,27 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
-      <c r="G2371" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr">
         <is>
           <t>3</t>
@@ -77206,63 +76786,59 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
-      <c r="G2372" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+      <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H2373" t="inlineStr">
@@ -77274,43 +76850,47 @@
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
-      <c r="E2374" t="inlineStr"/>
+      <c r="E2374" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="F2374" t="inlineStr"/>
       <c r="G2374" t="inlineStr"/>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
@@ -77319,681 +76899,41 @@
       <c r="G2375" t="inlineStr"/>
       <c r="H2375" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2376">
-      <c r="A2376" t="inlineStr"/>
+      <c r="A2376" t="inlineStr">
+        <is>
+          <t>07:15 AM</t>
+        </is>
+      </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>Fiscal BalanceDEC</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>MXN-1064.93B</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>MXN-1120.0B</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2377">
-      <c r="A2377" t="inlineStr"/>
-      <c r="B2377" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2377" t="inlineStr">
-        <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2377" t="inlineStr"/>
-      <c r="E2377" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2377" t="inlineStr"/>
-      <c r="G2377" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2378">
-      <c r="A2378" t="inlineStr"/>
-      <c r="B2378" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2378" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2378" t="inlineStr"/>
-      <c r="E2378" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2378" t="inlineStr"/>
-      <c r="G2378" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H2378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2379">
-      <c r="A2379" t="inlineStr"/>
-      <c r="B2379" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2379" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2379" t="inlineStr"/>
-      <c r="E2379" t="inlineStr">
-        <is>
-          <t>28.8%</t>
-        </is>
-      </c>
-      <c r="F2379" t="inlineStr"/>
-      <c r="G2379" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2380">
-      <c r="A2380" t="inlineStr"/>
-      <c r="B2380" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2380" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2380" t="inlineStr"/>
-      <c r="G2380" t="inlineStr">
-        <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
-      <c r="H2380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2381">
-      <c r="A2381" t="inlineStr"/>
-      <c r="B2381" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2381" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2381" t="inlineStr"/>
-      <c r="G2381" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2382">
-      <c r="A2382" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2382" t="inlineStr"/>
-      <c r="C2382" t="inlineStr"/>
-      <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr"/>
-      <c r="F2382" t="inlineStr"/>
-      <c r="G2382" t="inlineStr"/>
-      <c r="H2382" t="inlineStr"/>
-    </row>
-    <row r="2383">
-      <c r="A2383" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2383" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2383" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2383" t="inlineStr"/>
-      <c r="E2383" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2383" t="inlineStr"/>
-      <c r="G2383" t="inlineStr"/>
-      <c r="H2383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2384">
-      <c r="A2384" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2384" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2384" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2384" t="inlineStr"/>
-      <c r="E2384" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2384" t="inlineStr"/>
-      <c r="G2384" t="inlineStr"/>
-      <c r="H2384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2385">
-      <c r="A2385" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2385" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2385" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2385" t="inlineStr"/>
-      <c r="E2385" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2385" t="inlineStr"/>
-      <c r="G2385" t="inlineStr"/>
-      <c r="H2385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2386">
-      <c r="A2386" t="inlineStr">
-        <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2386" t="inlineStr"/>
-      <c r="C2386" t="inlineStr"/>
-      <c r="D2386" t="inlineStr"/>
-      <c r="E2386" t="inlineStr"/>
-      <c r="F2386" t="inlineStr"/>
-      <c r="G2386" t="inlineStr"/>
-      <c r="H2386" t="inlineStr"/>
-    </row>
-    <row r="2387">
-      <c r="A2387" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2387" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2387" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2387" t="inlineStr"/>
-      <c r="E2387" t="inlineStr">
-        <is>
-          <t>47.8</t>
-        </is>
-      </c>
-      <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr"/>
-      <c r="H2387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2388">
-      <c r="A2388" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2388" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2388" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2388" t="inlineStr"/>
-      <c r="E2388" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F2388" t="inlineStr"/>
-      <c r="G2388" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2389">
-      <c r="A2389" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2389" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2389" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2389" t="inlineStr"/>
-      <c r="E2389" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2389" t="inlineStr"/>
-      <c r="G2389" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="H2389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2390">
-      <c r="A2390" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2390" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2390" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2390" t="inlineStr"/>
-      <c r="E2390" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2390" t="inlineStr"/>
-      <c r="G2390" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2391">
-      <c r="A2391" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B2391" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2391" t="inlineStr">
-        <is>
-          <t>BoJ Summary of Opinions</t>
-        </is>
-      </c>
-      <c r="D2391" t="inlineStr"/>
-      <c r="E2391" t="inlineStr"/>
-      <c r="F2391" t="inlineStr"/>
-      <c r="G2391" t="inlineStr"/>
-      <c r="H2391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2392">
-      <c r="A2392" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2392" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2392" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D2392" t="inlineStr"/>
-      <c r="E2392" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="F2392" t="inlineStr"/>
-      <c r="G2392" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2393">
-      <c r="A2393" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2393" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2393" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2393" t="inlineStr"/>
-      <c r="E2393" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2393" t="inlineStr"/>
-      <c r="G2393" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2394">
-      <c r="A2394" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2394" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2394" t="inlineStr">
-        <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2394" t="inlineStr"/>
-      <c r="E2394" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2394" t="inlineStr"/>
-      <c r="G2394" t="inlineStr"/>
-      <c r="H2394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2395">
-      <c r="A2395" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2395" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2395" t="inlineStr">
-        <is>
-          <t>Private House Approvals MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D2395" t="inlineStr"/>
-      <c r="E2395" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2395" t="inlineStr"/>
-      <c r="G2395" t="inlineStr"/>
-      <c r="H2395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2396">
-      <c r="A2396" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2396" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2396" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2396" t="inlineStr"/>
-      <c r="E2396" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2396" t="inlineStr"/>
-      <c r="G2396" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="H2396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2397">
-      <c r="A2397" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2397" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2397" t="inlineStr">
-        <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2397" t="inlineStr"/>
-      <c r="E2397" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr"/>
-      <c r="H2397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2398">
-      <c r="A2398" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2398" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2398" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2398" t="inlineStr"/>
-      <c r="E2398" t="inlineStr"/>
-      <c r="F2398" t="inlineStr"/>
-      <c r="G2398" t="inlineStr"/>
-      <c r="H2398" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2425"/>
+  <dimension ref="A1:H2407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67267,10 +67267,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2065" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2065" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2066">
@@ -67293,10 +67291,8 @@
       <c r="E2066" t="inlineStr"/>
       <c r="F2066" t="inlineStr"/>
       <c r="G2066" t="inlineStr"/>
-      <c r="H2066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2066" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2067">
@@ -67335,10 +67331,8 @@
           <t>58.8</t>
         </is>
       </c>
-      <c r="H2067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2068">
@@ -67377,10 +67371,8 @@
           <t>56.1</t>
         </is>
       </c>
-      <c r="H2068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2069">
@@ -67419,10 +67411,8 @@
           <t>59.1</t>
         </is>
       </c>
-      <c r="H2069" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2069" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2070">
@@ -67461,10 +67451,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H2070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2071">
@@ -67503,10 +67491,8 @@
           <t>7%</t>
         </is>
       </c>
-      <c r="H2071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2072">
@@ -67537,10 +67523,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2073">
@@ -67575,10 +67559,8 @@
           <t>42.2</t>
         </is>
       </c>
-      <c r="H2073" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2073" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2074">
@@ -67613,10 +67595,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2074" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2075">
@@ -67651,10 +67631,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H2075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2076">
@@ -67689,10 +67667,8 @@
           <t>42.3</t>
         </is>
       </c>
-      <c r="H2076" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2076" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2077">
@@ -67727,10 +67703,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H2077" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2077" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2078">
@@ -67765,10 +67739,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2078" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2078" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2079">
@@ -67803,10 +67775,8 @@
           <t>49.4</t>
         </is>
       </c>
-      <c r="H2079" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2079" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2080">
@@ -67841,10 +67811,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H2080" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2080" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2081">
@@ -67879,10 +67847,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2081" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2081" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2082">
@@ -67917,10 +67883,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="H2082" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2082" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2083">
@@ -67955,10 +67919,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2083" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2083" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2084">
@@ -67993,10 +67955,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2085">
@@ -68019,10 +67979,8 @@
       <c r="E2085" t="inlineStr"/>
       <c r="F2085" t="inlineStr"/>
       <c r="G2085" t="inlineStr"/>
-      <c r="H2085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2086">
@@ -68053,10 +68011,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H2086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2087">
@@ -68079,10 +68035,8 @@
       <c r="E2087" t="inlineStr"/>
       <c r="F2087" t="inlineStr"/>
       <c r="G2087" t="inlineStr"/>
-      <c r="H2087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2087" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2088">
@@ -68117,10 +68071,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H2088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2089">
@@ -68147,10 +68099,8 @@
       </c>
       <c r="F2089" t="inlineStr"/>
       <c r="G2089" t="inlineStr"/>
-      <c r="H2089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2090">
@@ -68185,10 +68135,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H2090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2091">
@@ -68223,10 +68171,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2092">
@@ -68257,10 +68203,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -68295,10 +68239,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2094">
@@ -68333,10 +68275,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2095">
@@ -68371,10 +68311,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2095" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2095" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2096">
@@ -68405,10 +68343,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2096" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2096" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2097">
@@ -68439,10 +68375,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2098">
@@ -68473,10 +68407,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H2098" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2098" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2099">
@@ -68511,10 +68443,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H2099" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2099" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2100">
@@ -68549,10 +68479,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H2100" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2101">
@@ -68587,10 +68515,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H2101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2102">
@@ -68621,10 +68547,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2103">
@@ -68659,10 +68583,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H2103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2104">
@@ -68697,10 +68619,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2105">
@@ -68735,10 +68655,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H2105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2106">
@@ -68773,10 +68691,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H2106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2107">
@@ -68811,10 +68727,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2108">
@@ -68841,10 +68755,8 @@
       </c>
       <c r="F2108" t="inlineStr"/>
       <c r="G2108" t="inlineStr"/>
-      <c r="H2108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2109">
@@ -68871,10 +68783,8 @@
       </c>
       <c r="F2109" t="inlineStr"/>
       <c r="G2109" t="inlineStr"/>
-      <c r="H2109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2110">
@@ -68897,10 +68807,8 @@
       </c>
       <c r="F2110" t="inlineStr"/>
       <c r="G2110" t="inlineStr"/>
-      <c r="H2110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2111">
@@ -68927,10 +68835,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2112">
@@ -68975,10 +68881,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2114">
@@ -69009,10 +68913,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2114" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2115">
@@ -69043,10 +68945,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2116">
@@ -69077,10 +68977,8 @@
           <t>51.7</t>
         </is>
       </c>
-      <c r="H2116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2117">
@@ -69107,10 +69005,8 @@
       </c>
       <c r="F2117" t="inlineStr"/>
       <c r="G2117" t="inlineStr"/>
-      <c r="H2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2118">
@@ -69145,10 +69041,8 @@
           <t>107</t>
         </is>
       </c>
-      <c r="H2118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2119">
@@ -69175,10 +69069,8 @@
       </c>
       <c r="F2119" t="inlineStr"/>
       <c r="G2119" t="inlineStr"/>
-      <c r="H2119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2120">
@@ -69205,10 +69097,8 @@
       </c>
       <c r="F2120" t="inlineStr"/>
       <c r="G2120" t="inlineStr"/>
-      <c r="H2120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2121">
@@ -69235,10 +69125,8 @@
       </c>
       <c r="F2121" t="inlineStr"/>
       <c r="G2121" t="inlineStr"/>
-      <c r="H2121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2122">
@@ -69269,10 +69157,8 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H2122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2123">
@@ -69303,10 +69189,8 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H2123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2124">
@@ -69337,10 +69221,8 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H2124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2125">
@@ -69371,10 +69253,8 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H2125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2126">
@@ -69405,10 +69285,8 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H2126" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2126" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2127">
@@ -69431,10 +69309,8 @@
       <c r="E2127" t="inlineStr"/>
       <c r="F2127" t="inlineStr"/>
       <c r="G2127" t="inlineStr"/>
-      <c r="H2127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2128">
@@ -69465,10 +69341,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H2128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2128" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2129">
@@ -69499,10 +69373,8 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H2129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2130">
@@ -69533,10 +69405,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2131">
@@ -69567,10 +69437,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H2131" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2131" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2132">
@@ -69601,10 +69469,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2133">
@@ -69635,10 +69501,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H2133" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2133" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2134">
@@ -69665,10 +69529,8 @@
       </c>
       <c r="F2134" t="inlineStr"/>
       <c r="G2134" t="inlineStr"/>
-      <c r="H2134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2135">
@@ -69695,10 +69557,8 @@
       </c>
       <c r="F2135" t="inlineStr"/>
       <c r="G2135" t="inlineStr"/>
-      <c r="H2135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2136">
@@ -69725,10 +69585,8 @@
       </c>
       <c r="F2136" t="inlineStr"/>
       <c r="G2136" t="inlineStr"/>
-      <c r="H2136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2136" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2137">
@@ -69763,10 +69621,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H2137" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2137" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2138">
@@ -69797,10 +69653,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H2138" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2138" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2139">
@@ -69831,10 +69685,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H2139" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2139" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2140">
@@ -69861,10 +69713,8 @@
       </c>
       <c r="F2140" t="inlineStr"/>
       <c r="G2140" t="inlineStr"/>
-      <c r="H2140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2141">
@@ -69891,10 +69741,8 @@
       </c>
       <c r="F2141" t="inlineStr"/>
       <c r="G2141" t="inlineStr"/>
-      <c r="H2141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2141" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2142">
@@ -69921,10 +69769,8 @@
       </c>
       <c r="F2142" t="inlineStr"/>
       <c r="G2142" t="inlineStr"/>
-      <c r="H2142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2142" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2143">
@@ -69951,10 +69797,8 @@
       </c>
       <c r="F2143" t="inlineStr"/>
       <c r="G2143" t="inlineStr"/>
-      <c r="H2143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2143" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2144">
@@ -69973,10 +69817,8 @@
       <c r="E2144" t="inlineStr"/>
       <c r="F2144" t="inlineStr"/>
       <c r="G2144" t="inlineStr"/>
-      <c r="H2144" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2144" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2145">
@@ -70007,10 +69849,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H2145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2146">
@@ -70041,10 +69881,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2147">
@@ -70089,10 +69927,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H2148" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2149">
@@ -70123,10 +69959,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H2149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2149" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2150">
@@ -70153,10 +69987,8 @@
       </c>
       <c r="F2150" t="inlineStr"/>
       <c r="G2150" t="inlineStr"/>
-      <c r="H2150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2150" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2151">
@@ -70187,10 +70019,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2151" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2152">
@@ -70221,10 +70051,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H2152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2152" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2153">
@@ -70255,10 +70083,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H2153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2153" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2154">
@@ -70289,10 +70115,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2154" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2154" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2155">
@@ -70323,10 +70147,8 @@
           <t>88</t>
         </is>
       </c>
-      <c r="H2155" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2155" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2156">
@@ -70357,10 +70179,8 @@
           <t>11.70%</t>
         </is>
       </c>
-      <c r="H2156" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2156" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2157">
@@ -70387,10 +70207,8 @@
       </c>
       <c r="F2157" t="inlineStr"/>
       <c r="G2157" t="inlineStr"/>
-      <c r="H2157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2157" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2158">
@@ -70413,10 +70231,8 @@
       <c r="E2158" t="inlineStr"/>
       <c r="F2158" t="inlineStr"/>
       <c r="G2158" t="inlineStr"/>
-      <c r="H2158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2158" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2159">
@@ -70439,10 +70255,8 @@
       <c r="E2159" t="inlineStr"/>
       <c r="F2159" t="inlineStr"/>
       <c r="G2159" t="inlineStr"/>
-      <c r="H2159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2159" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2160">
@@ -70465,10 +70279,8 @@
       <c r="E2160" t="inlineStr"/>
       <c r="F2160" t="inlineStr"/>
       <c r="G2160" t="inlineStr"/>
-      <c r="H2160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2160" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2161">
@@ -70495,10 +70307,8 @@
       </c>
       <c r="F2161" t="inlineStr"/>
       <c r="G2161" t="inlineStr"/>
-      <c r="H2161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2161" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2162">
@@ -70533,10 +70343,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2162" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2162" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2163">
@@ -70567,10 +70375,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2163" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2164">
@@ -70601,10 +70407,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2164" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2165">
@@ -70635,10 +70439,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2165" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2166">
@@ -70665,10 +70467,8 @@
       </c>
       <c r="F2166" t="inlineStr"/>
       <c r="G2166" t="inlineStr"/>
-      <c r="H2166" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2166" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2167">
@@ -70699,10 +70499,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H2167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2167" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2168">
@@ -70733,10 +70531,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H2168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2168" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2169">
@@ -70767,10 +70563,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2169" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2170">
@@ -70801,10 +70595,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2170" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2171">
@@ -70835,10 +70627,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2171" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2172">
@@ -70873,10 +70663,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H2172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2173">
@@ -70907,10 +70695,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H2173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2174">
@@ -70941,10 +70727,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H2174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2175">
@@ -70975,10 +70759,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H2175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2176">
@@ -71009,10 +70791,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H2176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2177">
@@ -71043,10 +70823,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H2177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2178">
@@ -71073,10 +70851,8 @@
       </c>
       <c r="F2178" t="inlineStr"/>
       <c r="G2178" t="inlineStr"/>
-      <c r="H2178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2179">
@@ -71103,10 +70879,8 @@
       </c>
       <c r="F2179" t="inlineStr"/>
       <c r="G2179" t="inlineStr"/>
-      <c r="H2179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2180">
@@ -71133,10 +70907,8 @@
       </c>
       <c r="F2180" t="inlineStr"/>
       <c r="G2180" t="inlineStr"/>
-      <c r="H2180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2181">
@@ -71163,10 +70935,8 @@
       </c>
       <c r="F2181" t="inlineStr"/>
       <c r="G2181" t="inlineStr"/>
-      <c r="H2181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2182">
@@ -71207,10 +70977,8 @@
       </c>
       <c r="F2183" t="inlineStr"/>
       <c r="G2183" t="inlineStr"/>
-      <c r="H2183" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2183" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2184">
@@ -71241,10 +71009,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2184" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2184" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2185">
@@ -71275,10 +71041,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2186">
@@ -71309,10 +71073,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2187">
@@ -71343,10 +71105,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2187" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2187" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2188">
@@ -71377,10 +71137,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2189">
@@ -71411,10 +71169,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2190">
@@ -71445,10 +71201,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2191">
@@ -71479,10 +71233,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2192">
@@ -71509,10 +71261,8 @@
       </c>
       <c r="F2192" t="inlineStr"/>
       <c r="G2192" t="inlineStr"/>
-      <c r="H2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2193">
@@ -71543,10 +71293,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H2193" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2193" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2194">
@@ -71577,10 +71325,8 @@
           <t>-22</t>
         </is>
       </c>
-      <c r="H2194" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2194" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2195">
@@ -71611,10 +71357,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2195" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2195" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2196">
@@ -71645,10 +71389,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H2196" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2196" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2197">
@@ -71679,10 +71421,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2198">
@@ -71713,10 +71453,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2199">
@@ -71747,10 +71485,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2200">
@@ -71781,10 +71517,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H2200" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2200" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2201">
@@ -71815,10 +71549,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2201" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2201" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2202">
@@ -71845,10 +71577,8 @@
       </c>
       <c r="F2202" t="inlineStr"/>
       <c r="G2202" t="inlineStr"/>
-      <c r="H2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2203">
@@ -71875,10 +71605,8 @@
       </c>
       <c r="F2203" t="inlineStr"/>
       <c r="G2203" t="inlineStr"/>
-      <c r="H2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2204">
@@ -71905,10 +71633,8 @@
       </c>
       <c r="F2204" t="inlineStr"/>
       <c r="G2204" t="inlineStr"/>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -71939,10 +71665,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2206">
@@ -71969,10 +71693,8 @@
       </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2207">
@@ -71999,10 +71721,8 @@
       </c>
       <c r="F2207" t="inlineStr"/>
       <c r="G2207" t="inlineStr"/>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2208">
@@ -72029,10 +71749,8 @@
       </c>
       <c r="F2208" t="inlineStr"/>
       <c r="G2208" t="inlineStr"/>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2209">
@@ -72059,10 +71777,8 @@
       </c>
       <c r="F2209" t="inlineStr"/>
       <c r="G2209" t="inlineStr"/>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2210">
@@ -72089,10 +71805,8 @@
       </c>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2211">
@@ -72123,10 +71837,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2212">
@@ -72157,10 +71869,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2213">
@@ -72191,10 +71901,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2214">
@@ -72217,10 +71925,8 @@
       <c r="E2214" t="inlineStr"/>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2215">
@@ -72255,10 +71961,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2216">
@@ -72281,10 +71985,8 @@
       <c r="E2216" t="inlineStr"/>
       <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr"/>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2217">
@@ -72311,10 +72013,8 @@
       </c>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2218">
@@ -72341,10 +72041,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2219">
@@ -72367,10 +72065,8 @@
       <c r="E2219" t="inlineStr"/>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -72393,10 +72089,8 @@
       <c r="E2220" t="inlineStr"/>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -72419,10 +72113,8 @@
       <c r="E2221" t="inlineStr"/>
       <c r="F2221" t="inlineStr"/>
       <c r="G2221" t="inlineStr"/>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -72445,10 +72137,8 @@
       <c r="E2222" t="inlineStr"/>
       <c r="F2222" t="inlineStr"/>
       <c r="G2222" t="inlineStr"/>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -72471,10 +72161,8 @@
       <c r="E2223" t="inlineStr"/>
       <c r="F2223" t="inlineStr"/>
       <c r="G2223" t="inlineStr"/>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -72497,10 +72185,8 @@
       <c r="E2224" t="inlineStr"/>
       <c r="F2224" t="inlineStr"/>
       <c r="G2224" t="inlineStr"/>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -72523,10 +72209,8 @@
       <c r="E2225" t="inlineStr"/>
       <c r="F2225" t="inlineStr"/>
       <c r="G2225" t="inlineStr"/>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -72557,10 +72241,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -72591,10 +72273,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -72621,10 +72301,8 @@
       </c>
       <c r="F2228" t="inlineStr"/>
       <c r="G2228" t="inlineStr"/>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -72673,10 +72351,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2231">
@@ -72699,10 +72375,8 @@
       <c r="E2231" t="inlineStr"/>
       <c r="F2231" t="inlineStr"/>
       <c r="G2231" t="inlineStr"/>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2232">
@@ -72733,10 +72407,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2233">
@@ -72763,10 +72435,8 @@
       </c>
       <c r="F2233" t="inlineStr"/>
       <c r="G2233" t="inlineStr"/>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2234">
@@ -72793,10 +72463,8 @@
       </c>
       <c r="F2234" t="inlineStr"/>
       <c r="G2234" t="inlineStr"/>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2235">
@@ -72827,10 +72495,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2236">
@@ -72853,10 +72519,8 @@
       <c r="E2236" t="inlineStr"/>
       <c r="F2236" t="inlineStr"/>
       <c r="G2236" t="inlineStr"/>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2237">
@@ -72887,10 +72551,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -72921,10 +72583,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -72955,10 +72615,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2240">
@@ -72985,10 +72643,8 @@
       </c>
       <c r="F2240" t="inlineStr"/>
       <c r="G2240" t="inlineStr"/>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2241">
@@ -73019,10 +72675,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2242">
@@ -73053,10 +72707,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2243">
@@ -73087,10 +72739,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2244">
@@ -73121,10 +72771,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2245">
@@ -73155,10 +72803,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2246">
@@ -73189,10 +72835,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -73223,10 +72867,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -73257,10 +72899,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -73291,10 +72931,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2250">
@@ -73325,10 +72963,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -73359,10 +72995,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2252">
@@ -73393,10 +73027,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2253">
@@ -73427,10 +73059,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2254">
@@ -73461,10 +73091,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2255">
@@ -73495,10 +73123,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2256">
@@ -73529,10 +73155,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -73559,10 +73183,8 @@
       </c>
       <c r="F2257" t="inlineStr"/>
       <c r="G2257" t="inlineStr"/>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -73593,10 +73215,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2259">
@@ -73627,10 +73247,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2260">
@@ -73661,10 +73279,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2261">
@@ -73695,10 +73311,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -73729,10 +73343,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -73763,10 +73375,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2263" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2264">
@@ -73797,10 +73407,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2265">
@@ -73827,10 +73435,8 @@
       </c>
       <c r="F2265" t="inlineStr"/>
       <c r="G2265" t="inlineStr"/>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2266">
@@ -73861,10 +73467,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2267">
@@ -73895,10 +73499,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2268">
@@ -73929,10 +73531,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2269">
@@ -73963,10 +73563,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2270">
@@ -73997,10 +73595,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -74031,10 +73627,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -74057,10 +73651,8 @@
       <c r="E2272" t="inlineStr"/>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr"/>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -74091,10 +73683,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2274">
@@ -74125,10 +73715,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2275">
@@ -74159,10 +73747,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2276">
@@ -74185,10 +73771,8 @@
       <c r="E2276" t="inlineStr"/>
       <c r="F2276" t="inlineStr"/>
       <c r="G2276" t="inlineStr"/>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2277">
@@ -74215,10 +73799,8 @@
       </c>
       <c r="F2277" t="inlineStr"/>
       <c r="G2277" t="inlineStr"/>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2278">
@@ -74249,10 +73831,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2279">
@@ -74283,10 +73863,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2279" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2280">
@@ -74317,10 +73895,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2280" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2280" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2281">
@@ -74351,10 +73927,8 @@
         </is>
       </c>
       <c r="G2281" t="inlineStr"/>
-      <c r="H2281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2282">
@@ -74381,10 +73955,8 @@
       </c>
       <c r="F2282" t="inlineStr"/>
       <c r="G2282" t="inlineStr"/>
-      <c r="H2282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2283">
@@ -74419,10 +73991,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2283" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2283" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2284">
@@ -74457,10 +74027,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2284" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2284" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2285">
@@ -74491,10 +74059,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2286">
@@ -74525,10 +74091,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2287">
@@ -74559,10 +74123,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2287" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2287" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2288">
@@ -74593,10 +74155,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2288" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2288" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2289">
@@ -74627,10 +74187,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2289" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2289" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2290">
@@ -74661,10 +74219,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2291">
@@ -74695,10 +74251,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2292">
@@ -74729,10 +74283,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2293">
@@ -74763,10 +74315,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2294">
@@ -74797,10 +74347,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2295">
@@ -74831,10 +74379,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2296">
@@ -74857,10 +74403,8 @@
       <c r="E2296" t="inlineStr"/>
       <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr"/>
-      <c r="H2296" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2296" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2297">
@@ -74891,10 +74435,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2297" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2297" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2298">
@@ -74925,10 +74467,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2298" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2298" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2299">
@@ -74955,10 +74495,8 @@
       </c>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr"/>
-      <c r="H2299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2300">
@@ -74985,10 +74523,8 @@
       </c>
       <c r="F2300" t="inlineStr"/>
       <c r="G2300" t="inlineStr"/>
-      <c r="H2300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2301">
@@ -75011,10 +74547,8 @@
       <c r="E2301" t="inlineStr"/>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr"/>
-      <c r="H2301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2302">
@@ -75041,10 +74575,8 @@
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr"/>
-      <c r="H2302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2303">
@@ -75071,10 +74603,8 @@
       </c>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr"/>
-      <c r="H2303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2304">
@@ -75097,10 +74627,8 @@
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr"/>
-      <c r="H2304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2305">
@@ -75127,10 +74655,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2306">
@@ -75157,10 +74683,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2307">
@@ -75187,46 +74711,72 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2308" t="inlineStr"/>
-      <c r="C2308" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D2308" t="inlineStr"/>
-      <c r="E2308" t="inlineStr"/>
+      <c r="E2308" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr"/>
-      <c r="H2308" t="inlineStr"/>
+      <c r="G2308" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H2308" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr"/>
+      <c r="E2309" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr"/>
+      <c r="G2309" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2309" t="inlineStr">
         <is>
           <t>3</t>
@@ -75236,97 +74786,101 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
       <c r="G2310" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H2310" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
       <c r="E2311" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-8.82B</t>
         </is>
       </c>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
       <c r="E2312" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2312" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F2312" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
       <c r="G2312" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>$ 23.46B</t>
         </is>
       </c>
       <c r="H2312" t="inlineStr">
@@ -75338,29 +74892,29 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F2313" t="inlineStr"/>
       <c r="G2313" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>$32.29B</t>
         </is>
       </c>
       <c r="H2313" t="inlineStr">
@@ -75372,29 +74926,29 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$ 23.5B</t>
         </is>
       </c>
       <c r="H2314" t="inlineStr">
@@ -75406,29 +74960,29 @@
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
       <c r="G2315" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H2315" t="inlineStr">
@@ -75440,29 +74994,29 @@
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2316" t="inlineStr">
@@ -75474,131 +75028,131 @@
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
       <c r="G2317" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2318" t="inlineStr"/>
       <c r="G2318" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr"/>
       <c r="G2319" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2320" t="inlineStr"/>
       <c r="G2320" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H2320" t="inlineStr">
@@ -75610,29 +75164,29 @@
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2321" t="inlineStr"/>
       <c r="G2321" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2321" t="inlineStr">
@@ -75644,29 +75198,29 @@
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
       <c r="E2322" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2322" t="inlineStr">
@@ -75678,29 +75232,29 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
       <c r="E2323" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2323" t="inlineStr">
@@ -75712,29 +75266,29 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
       <c r="E2324" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2324" t="inlineStr">
@@ -75746,23 +75300,23 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2325" t="inlineStr"/>
@@ -75776,59 +75330,63 @@
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr"/>
+      <c r="G2326" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H2326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2327" t="inlineStr">
@@ -75840,65 +75398,61 @@
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2328" t="inlineStr"/>
       <c r="G2328" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2329" t="inlineStr"/>
-      <c r="G2329" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G2329" t="inlineStr"/>
       <c r="H2329" t="inlineStr">
         <is>
           <t>3</t>
@@ -75908,7 +75462,7 @@
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
@@ -75918,31 +75472,27 @@
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
       <c r="E2330" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
@@ -75952,31 +75502,27 @@
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
-      <c r="G2331" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
@@ -75986,21 +75532,17 @@
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2332" t="inlineStr"/>
       <c r="H2332" t="inlineStr">
         <is>
           <t>3</t>
@@ -76010,7 +75552,7 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
@@ -76020,21 +75562,17 @@
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G2333" t="inlineStr"/>
       <c r="H2333" t="inlineStr">
         <is>
           <t>3</t>
@@ -76044,69 +75582,57 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2334" t="inlineStr"/>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2335" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2335" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2335" t="inlineStr"/>
+      <c r="G2335" t="inlineStr"/>
       <c r="H2335" t="inlineStr">
         <is>
           <t>3</t>
@@ -76116,31 +75642,27 @@
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
-      <c r="G2336" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2336" t="inlineStr"/>
       <c r="H2336" t="inlineStr">
         <is>
           <t>3</t>
@@ -76150,31 +75672,27 @@
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2337" t="inlineStr"/>
       <c r="H2337" t="inlineStr">
         <is>
           <t>3</t>
@@ -76184,165 +75702,153 @@
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2338" t="inlineStr"/>
       <c r="H2338" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2339" t="inlineStr"/>
       <c r="H2339" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2340" t="inlineStr"/>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2341" t="inlineStr"/>
       <c r="G2341" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2341" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2342" t="inlineStr"/>
       <c r="G2342" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2342" t="inlineStr">
@@ -76354,29 +75860,29 @@
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2343" t="inlineStr"/>
       <c r="G2343" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2343" t="inlineStr">
@@ -76388,31 +75894,27 @@
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
       <c r="E2344" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2344" t="inlineStr"/>
       <c r="H2344" t="inlineStr">
         <is>
           <t>3</t>
@@ -76422,29 +75924,29 @@
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2345" t="inlineStr">
@@ -76456,29 +75958,29 @@
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
       <c r="G2346" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2346" t="inlineStr">
@@ -76490,31 +75992,27 @@
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2347" t="inlineStr"/>
       <c r="H2347" t="inlineStr">
         <is>
           <t>3</t>
@@ -76524,23 +76022,23 @@
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2348" t="inlineStr"/>
@@ -76554,85 +76052,77 @@
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="E2349" t="inlineStr"/>
       <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
+      <c r="G2349" t="inlineStr"/>
       <c r="H2349" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
       <c r="G2350" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
@@ -76644,7 +76134,7 @@
       <c r="F2351" t="inlineStr"/>
       <c r="G2351" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H2351" t="inlineStr">
@@ -76656,37 +76146,41 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr"/>
-      <c r="G2352" t="inlineStr"/>
+      <c r="G2352" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
@@ -76696,7 +76190,7 @@
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
@@ -76706,17 +76200,21 @@
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
-      <c r="G2353" t="inlineStr"/>
+      <c r="G2353" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2353" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
@@ -76726,7 +76224,7 @@
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
@@ -76736,17 +76234,21 @@
         </is>
       </c>
       <c r="F2354" t="inlineStr"/>
-      <c r="G2354" t="inlineStr"/>
+      <c r="G2354" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
@@ -76756,17 +76258,21 @@
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr"/>
+      <c r="G2355" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2355" t="inlineStr">
         <is>
           <t>3</t>
@@ -76776,7 +76282,7 @@
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
@@ -76786,17 +76292,21 @@
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2356" t="inlineStr"/>
-      <c r="G2356" t="inlineStr"/>
+      <c r="G2356" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2356" t="inlineStr">
         <is>
           <t>3</t>
@@ -76806,339 +76316,383 @@
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2357" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2357" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
-      <c r="G2358" t="inlineStr"/>
+      <c r="G2358" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2358" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2359" t="inlineStr"/>
-      <c r="G2359" t="inlineStr"/>
+      <c r="G2359" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2359" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2360" t="inlineStr"/>
-      <c r="G2360" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2360" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2360" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2361" t="inlineStr"/>
-      <c r="G2361" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2361" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2361" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2361" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr"/>
+      <c r="G2362" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
       <c r="E2363" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr"/>
+      <c r="G2363" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2363" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2364" t="inlineStr"/>
       <c r="G2364" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2364" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
       <c r="G2365" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2365" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2366" t="inlineStr"/>
       <c r="G2366" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2366" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
-      <c r="G2367" t="inlineStr"/>
+      <c r="G2367" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2367" t="inlineStr">
         <is>
           <t>3</t>
@@ -77148,63 +76702,63 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
       <c r="E2368" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2368" t="inlineStr"/>
       <c r="G2368" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H2368" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
@@ -77216,25 +76770,21 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
-      <c r="E2370" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E2370" t="inlineStr"/>
       <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr">
@@ -77246,25 +76796,21 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
-      <c r="E2371" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2371" t="inlineStr"/>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr">
@@ -77274,25 +76820,29 @@
       </c>
     </row>
     <row r="2372">
-      <c r="A2372" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2372" t="inlineStr"/>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
-      <c r="E2372" t="inlineStr"/>
+      <c r="E2372" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F2372" t="inlineStr"/>
-      <c r="G2372" t="inlineStr"/>
+      <c r="G2372" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H2372" t="inlineStr">
         <is>
           <t>3</t>
@@ -77300,31 +76850,27 @@
       </c>
     </row>
     <row r="2373">
-      <c r="A2373" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2373" t="inlineStr"/>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2373" t="inlineStr">
@@ -77334,487 +76880,395 @@
       </c>
     </row>
     <row r="2374">
-      <c r="A2374" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2374" t="inlineStr"/>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
       <c r="G2374" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2375">
-      <c r="A2375" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2375" t="inlineStr"/>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2375" t="inlineStr"/>
       <c r="G2375" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2375" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2376">
-      <c r="A2376" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2376" t="inlineStr"/>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2377">
-      <c r="A2377" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2377" t="inlineStr"/>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr"/>
       <c r="G2377" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2378" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2378" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2378" t="inlineStr"/>
+      <c r="C2378" t="inlineStr"/>
       <c r="D2378" t="inlineStr"/>
-      <c r="E2378" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2378" t="inlineStr"/>
       <c r="F2378" t="inlineStr"/>
-      <c r="G2378" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2378" t="inlineStr"/>
+      <c r="H2378" t="inlineStr"/>
     </row>
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2379" t="inlineStr"/>
-      <c r="G2379" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G2379" t="inlineStr"/>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
       <c r="E2380" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2380" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2380" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F2380" t="inlineStr"/>
+      <c r="G2380" t="inlineStr"/>
       <c r="H2380" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
       <c r="E2381" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2381" t="inlineStr"/>
-      <c r="G2381" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2382" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2382" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2382" t="inlineStr"/>
+      <c r="C2382" t="inlineStr"/>
       <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2382" t="inlineStr"/>
       <c r="F2382" t="inlineStr"/>
-      <c r="G2382" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2382" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G2382" t="inlineStr"/>
+      <c r="H2382" t="inlineStr"/>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
       <c r="E2383" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2383" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2383" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="F2383" t="inlineStr"/>
+      <c r="G2383" t="inlineStr"/>
       <c r="H2383" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2384" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F2384" t="inlineStr"/>
       <c r="G2384" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2384" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2385" t="inlineStr"/>
       <c r="G2385" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H2385" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2386" t="inlineStr"/>
       <c r="G2386" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2386" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
-      <c r="E2387" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E2387" t="inlineStr"/>
       <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2387" t="inlineStr"/>
       <c r="H2387" t="inlineStr">
         <is>
           <t>2</t>
@@ -77824,29 +77278,29 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2388" t="inlineStr"/>
       <c r="G2388" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2388" t="inlineStr">
@@ -77858,29 +77312,29 @@
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
       <c r="E2389" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2389" t="inlineStr">
@@ -77892,31 +77346,27 @@
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
       <c r="E2390" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2390" t="inlineStr"/>
-      <c r="G2390" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G2390" t="inlineStr"/>
       <c r="H2390" t="inlineStr">
         <is>
           <t>3</t>
@@ -77926,63 +77376,59 @@
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
       <c r="E2391" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2391" t="inlineStr"/>
-      <c r="G2391" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+      <c r="G2391" t="inlineStr"/>
       <c r="H2391" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2392" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
       <c r="E2392" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2392" t="inlineStr"/>
       <c r="G2392" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H2392" t="inlineStr">
@@ -77994,43 +77440,47 @@
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
-      <c r="E2393" t="inlineStr"/>
+      <c r="E2393" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="F2393" t="inlineStr"/>
       <c r="G2393" t="inlineStr"/>
       <c r="H2393" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
@@ -78039,94 +77489,98 @@
       <c r="G2394" t="inlineStr"/>
       <c r="H2394" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2395">
-      <c r="A2395" t="inlineStr"/>
+      <c r="A2395" t="inlineStr">
+        <is>
+          <t>07:15 AM</t>
+        </is>
+      </c>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>Fiscal BalanceDEC</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
       <c r="E2395" t="inlineStr">
         <is>
-          <t>MXN-1064.93B</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="F2395" t="inlineStr"/>
       <c r="G2395" t="inlineStr">
         <is>
-          <t>MXN-1120.0B</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2395" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2396">
-      <c r="A2396" t="inlineStr"/>
+      <c r="A2396" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2396" t="inlineStr"/>
-      <c r="G2396" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="G2396" t="inlineStr"/>
       <c r="H2396" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2397">
-      <c r="A2397" t="inlineStr"/>
+      <c r="A2397" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
       <c r="E2397" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G2397" t="inlineStr"/>
       <c r="H2397" t="inlineStr">
         <is>
           <t>3</t>
@@ -78134,29 +77588,29 @@
       </c>
     </row>
     <row r="2398">
-      <c r="A2398" t="inlineStr"/>
+      <c r="A2398" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
       <c r="E2398" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F2398" t="inlineStr"/>
-      <c r="G2398" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G2398" t="inlineStr"/>
       <c r="H2398" t="inlineStr">
         <is>
           <t>3</t>
@@ -78164,29 +77618,29 @@
       </c>
     </row>
     <row r="2399">
-      <c r="A2399" t="inlineStr"/>
+      <c r="A2399" t="inlineStr">
+        <is>
+          <t>10:15 AM</t>
+        </is>
+      </c>
       <c r="B2399" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
       <c r="E2399" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr">
-        <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
+      <c r="G2399" t="inlineStr"/>
       <c r="H2399" t="inlineStr">
         <is>
           <t>3</t>
@@ -78194,29 +77648,29 @@
       </c>
     </row>
     <row r="2400">
-      <c r="A2400" t="inlineStr"/>
+      <c r="A2400" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2400" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
       <c r="E2400" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F2400" t="inlineStr"/>
-      <c r="G2400" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
+      <c r="G2400" t="inlineStr"/>
       <c r="H2400" t="inlineStr">
         <is>
           <t>3</t>
@@ -78226,37 +77680,53 @@
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2401" t="inlineStr"/>
-      <c r="C2401" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>Commodity Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="D2401" t="inlineStr"/>
-      <c r="E2401" t="inlineStr"/>
+      <c r="E2401" t="inlineStr">
+        <is>
+          <t>-10.7%</t>
+        </is>
+      </c>
       <c r="F2401" t="inlineStr"/>
       <c r="G2401" t="inlineStr"/>
-      <c r="H2401" t="inlineStr"/>
+      <c r="H2401" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2402" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
       <c r="E2402" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2402" t="inlineStr"/>
@@ -78270,694 +77740,150 @@
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2403" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
       <c r="E2403" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2403" t="inlineStr"/>
       <c r="G2403" t="inlineStr"/>
       <c r="H2403" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2404" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
       <c r="E2404" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2404" t="inlineStr"/>
       <c r="G2404" t="inlineStr"/>
       <c r="H2404" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2405" t="inlineStr"/>
-      <c r="C2405" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2405" t="inlineStr">
+        <is>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+        </is>
+      </c>
       <c r="D2405" t="inlineStr"/>
-      <c r="E2405" t="inlineStr"/>
+      <c r="E2405" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
       <c r="F2405" t="inlineStr"/>
       <c r="G2405" t="inlineStr"/>
-      <c r="H2405" t="inlineStr"/>
+      <c r="H2405" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2406" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2406" t="inlineStr"/>
       <c r="E2406" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2406" t="inlineStr"/>
       <c r="G2406" t="inlineStr"/>
       <c r="H2406" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2407" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2407" t="inlineStr"/>
       <c r="E2407" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2407" t="inlineStr"/>
-      <c r="G2407" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2407" t="inlineStr"/>
       <c r="H2407" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2408">
-      <c r="A2408" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2408" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2408" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2408" t="inlineStr"/>
-      <c r="E2408" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2408" t="inlineStr"/>
-      <c r="G2408" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="H2408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2409">
-      <c r="A2409" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2409" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2409" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2409" t="inlineStr"/>
-      <c r="E2409" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2409" t="inlineStr"/>
-      <c r="G2409" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2410">
-      <c r="A2410" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B2410" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2410" t="inlineStr">
-        <is>
-          <t>BoJ Summary of Opinions</t>
-        </is>
-      </c>
-      <c r="D2410" t="inlineStr"/>
-      <c r="E2410" t="inlineStr"/>
-      <c r="F2410" t="inlineStr"/>
-      <c r="G2410" t="inlineStr"/>
-      <c r="H2410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2411">
-      <c r="A2411" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2411" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2411" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D2411" t="inlineStr"/>
-      <c r="E2411" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="F2411" t="inlineStr"/>
-      <c r="G2411" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2412">
-      <c r="A2412" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2412" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2412" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2412" t="inlineStr"/>
-      <c r="G2412" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2413">
-      <c r="A2413" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2413" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2413" t="inlineStr">
-        <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2413" t="inlineStr"/>
-      <c r="E2413" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2413" t="inlineStr"/>
-      <c r="G2413" t="inlineStr"/>
-      <c r="H2413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2414">
-      <c r="A2414" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2414" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2414" t="inlineStr">
-        <is>
-          <t>Private House Approvals MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D2414" t="inlineStr"/>
-      <c r="E2414" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2414" t="inlineStr"/>
-      <c r="G2414" t="inlineStr"/>
-      <c r="H2414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2415">
-      <c r="A2415" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2415" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2415" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2415" t="inlineStr"/>
-      <c r="G2415" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="H2415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2416">
-      <c r="A2416" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2416" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2416" t="inlineStr">
-        <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2416" t="inlineStr"/>
-      <c r="E2416" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2416" t="inlineStr"/>
-      <c r="G2416" t="inlineStr"/>
-      <c r="H2416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2417">
-      <c r="A2417" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2417" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2417" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2417" t="inlineStr"/>
-      <c r="E2417" t="inlineStr"/>
-      <c r="F2417" t="inlineStr"/>
-      <c r="G2417" t="inlineStr"/>
-      <c r="H2417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2418">
-      <c r="A2418" t="inlineStr">
-        <is>
-          <t>07:15 AM</t>
-        </is>
-      </c>
-      <c r="B2418" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2418" t="inlineStr">
-        <is>
-          <t>Caixin Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2418" t="inlineStr"/>
-      <c r="E2418" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2418" t="inlineStr"/>
-      <c r="G2418" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="H2418" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2419">
-      <c r="A2419" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2419" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2419" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2419" t="inlineStr"/>
-      <c r="E2419" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F2419" t="inlineStr"/>
-      <c r="G2419" t="inlineStr"/>
-      <c r="H2419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2420">
-      <c r="A2420" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2420" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2420" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2420" t="inlineStr"/>
-      <c r="E2420" t="inlineStr">
-        <is>
-          <t>2.26%</t>
-        </is>
-      </c>
-      <c r="F2420" t="inlineStr"/>
-      <c r="G2420" t="inlineStr"/>
-      <c r="H2420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2421">
-      <c r="A2421" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2421" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2421" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2421" t="inlineStr"/>
-      <c r="E2421" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="F2421" t="inlineStr"/>
-      <c r="G2421" t="inlineStr"/>
-      <c r="H2421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2422">
-      <c r="A2422" t="inlineStr">
-        <is>
-          <t>10:15 AM</t>
-        </is>
-      </c>
-      <c r="B2422" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2422" t="inlineStr">
-        <is>
-          <t>Tourist Arrivals YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2422" t="inlineStr"/>
-      <c r="E2422" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
-      <c r="F2422" t="inlineStr"/>
-      <c r="G2422" t="inlineStr"/>
-      <c r="H2422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2423">
-      <c r="A2423" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2423" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C2423" t="inlineStr">
-        <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2423" t="inlineStr"/>
-      <c r="E2423" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2423" t="inlineStr"/>
-      <c r="G2423" t="inlineStr"/>
-      <c r="H2423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2424">
-      <c r="A2424" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2424" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2424" t="inlineStr">
-        <is>
-          <t>Commodity Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2424" t="inlineStr"/>
-      <c r="E2424" t="inlineStr">
-        <is>
-          <t>-10.7%</t>
-        </is>
-      </c>
-      <c r="F2424" t="inlineStr"/>
-      <c r="G2424" t="inlineStr"/>
-      <c r="H2424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2425">
-      <c r="A2425" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2425" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2425" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2425" t="inlineStr"/>
-      <c r="E2425" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F2425" t="inlineStr"/>
-      <c r="G2425" t="inlineStr"/>
-      <c r="H2425" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2425"/>
+  <dimension ref="A1:H2413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68867,10 +68867,8 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H2112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2113">
@@ -68893,10 +68891,8 @@
       <c r="E2113" t="inlineStr"/>
       <c r="F2113" t="inlineStr"/>
       <c r="G2113" t="inlineStr"/>
-      <c r="H2113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2114">
@@ -68927,10 +68923,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H2114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2114" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2115">
@@ -68961,10 +68955,8 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H2115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2116">
@@ -68995,10 +68987,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2117">
@@ -69029,10 +69019,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H2117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2117" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2118">
@@ -69063,10 +69051,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2119">
@@ -69097,10 +69083,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H2119" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2119" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2120">
@@ -69127,10 +69111,8 @@
       </c>
       <c r="F2120" t="inlineStr"/>
       <c r="G2120" t="inlineStr"/>
-      <c r="H2120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2121">
@@ -69157,10 +69139,8 @@
       </c>
       <c r="F2121" t="inlineStr"/>
       <c r="G2121" t="inlineStr"/>
-      <c r="H2121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2122">
@@ -69187,10 +69167,8 @@
       </c>
       <c r="F2122" t="inlineStr"/>
       <c r="G2122" t="inlineStr"/>
-      <c r="H2122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2123">
@@ -69225,10 +69203,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H2123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2123" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2124">
@@ -69259,10 +69235,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H2124" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2124" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2125">
@@ -69293,10 +69267,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H2125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2125" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2126">
@@ -69323,10 +69295,8 @@
       </c>
       <c r="F2126" t="inlineStr"/>
       <c r="G2126" t="inlineStr"/>
-      <c r="H2126" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2126" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2127">
@@ -69353,10 +69323,8 @@
       </c>
       <c r="F2127" t="inlineStr"/>
       <c r="G2127" t="inlineStr"/>
-      <c r="H2127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2128">
@@ -69383,10 +69351,8 @@
       </c>
       <c r="F2128" t="inlineStr"/>
       <c r="G2128" t="inlineStr"/>
-      <c r="H2128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2129">
@@ -69413,10 +69379,8 @@
       </c>
       <c r="F2129" t="inlineStr"/>
       <c r="G2129" t="inlineStr"/>
-      <c r="H2129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2130">
@@ -69439,10 +69403,8 @@
       </c>
       <c r="F2130" t="inlineStr"/>
       <c r="G2130" t="inlineStr"/>
-      <c r="H2130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2131">
@@ -69461,10 +69423,8 @@
       <c r="E2131" t="inlineStr"/>
       <c r="F2131" t="inlineStr"/>
       <c r="G2131" t="inlineStr"/>
-      <c r="H2131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2132">
@@ -69495,10 +69455,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H2132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2133">
@@ -69529,10 +69487,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2133" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2134">
@@ -69577,10 +69533,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H2135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2135" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2136">
@@ -69611,10 +69565,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H2136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2136" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2137">
@@ -69641,10 +69593,8 @@
       </c>
       <c r="F2137" t="inlineStr"/>
       <c r="G2137" t="inlineStr"/>
-      <c r="H2137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2138">
@@ -69675,10 +69625,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2139">
@@ -69709,10 +69657,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H2139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2140">
@@ -69743,10 +69689,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H2140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2141">
@@ -69777,10 +69721,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2141" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2142">
@@ -69811,10 +69753,8 @@
           <t>88</t>
         </is>
       </c>
-      <c r="H2142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2142" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2143">
@@ -69845,10 +69785,8 @@
           <t>11.70%</t>
         </is>
       </c>
-      <c r="H2143" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2143" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2144">
@@ -69875,10 +69813,8 @@
       </c>
       <c r="F2144" t="inlineStr"/>
       <c r="G2144" t="inlineStr"/>
-      <c r="H2144" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2144" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2145">
@@ -69901,10 +69837,8 @@
       <c r="E2145" t="inlineStr"/>
       <c r="F2145" t="inlineStr"/>
       <c r="G2145" t="inlineStr"/>
-      <c r="H2145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2146">
@@ -69927,10 +69861,8 @@
       <c r="E2146" t="inlineStr"/>
       <c r="F2146" t="inlineStr"/>
       <c r="G2146" t="inlineStr"/>
-      <c r="H2146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2147">
@@ -69953,10 +69885,8 @@
       <c r="E2147" t="inlineStr"/>
       <c r="F2147" t="inlineStr"/>
       <c r="G2147" t="inlineStr"/>
-      <c r="H2147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2148">
@@ -69983,10 +69913,8 @@
       </c>
       <c r="F2148" t="inlineStr"/>
       <c r="G2148" t="inlineStr"/>
-      <c r="H2148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2149">
@@ -70021,10 +69949,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2149" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2150">
@@ -70055,10 +69981,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2150" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2150" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2151">
@@ -70089,10 +70013,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2151" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2152">
@@ -70123,10 +70045,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2152" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2153">
@@ -70153,10 +70073,8 @@
       </c>
       <c r="F2153" t="inlineStr"/>
       <c r="G2153" t="inlineStr"/>
-      <c r="H2153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2153" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2154">
@@ -70187,10 +70105,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H2154" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2154" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2155">
@@ -70221,10 +70137,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H2155" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2155" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2156">
@@ -70255,10 +70169,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2156" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2157">
@@ -70289,10 +70201,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2157" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2158">
@@ -70323,10 +70233,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2158" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2159">
@@ -70361,10 +70269,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H2159" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2159" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2160">
@@ -70395,10 +70301,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H2160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2160" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2161">
@@ -70429,10 +70333,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H2161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2161" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2162">
@@ -70463,10 +70365,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H2162" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2162" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2163">
@@ -70497,10 +70397,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H2163" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2163" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2164">
@@ -70531,10 +70429,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H2164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2164" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2165">
@@ -70561,10 +70457,8 @@
       </c>
       <c r="F2165" t="inlineStr"/>
       <c r="G2165" t="inlineStr"/>
-      <c r="H2165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2165" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2166">
@@ -70591,10 +70485,8 @@
       </c>
       <c r="F2166" t="inlineStr"/>
       <c r="G2166" t="inlineStr"/>
-      <c r="H2166" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2166" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2167">
@@ -70621,10 +70513,8 @@
       </c>
       <c r="F2167" t="inlineStr"/>
       <c r="G2167" t="inlineStr"/>
-      <c r="H2167" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2167" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2168">
@@ -70651,10 +70541,8 @@
       </c>
       <c r="F2168" t="inlineStr"/>
       <c r="G2168" t="inlineStr"/>
-      <c r="H2168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2168" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2169">
@@ -70695,10 +70583,8 @@
       </c>
       <c r="F2170" t="inlineStr"/>
       <c r="G2170" t="inlineStr"/>
-      <c r="H2170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2171">
@@ -70729,10 +70615,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2171" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2171" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2172">
@@ -70763,10 +70647,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2173">
@@ -70797,10 +70679,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2173" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2173" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2174">
@@ -70831,10 +70711,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2174" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2175">
@@ -70865,10 +70743,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2175" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2176">
@@ -70899,10 +70775,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H2176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2177">
@@ -70933,10 +70807,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2178">
@@ -70967,10 +70839,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2179">
@@ -70997,10 +70867,8 @@
       </c>
       <c r="F2179" t="inlineStr"/>
       <c r="G2179" t="inlineStr"/>
-      <c r="H2179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2180">
@@ -71031,10 +70899,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H2180" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2180" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2181">
@@ -71065,10 +70931,8 @@
           <t>-22</t>
         </is>
       </c>
-      <c r="H2181" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2181" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2182">
@@ -71099,10 +70963,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2182" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2182" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2183">
@@ -71133,10 +70995,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H2183" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2183" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2184">
@@ -71167,10 +71027,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2184" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2185">
@@ -71201,10 +71059,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2186">
@@ -71235,10 +71091,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2186" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2187">
@@ -71269,10 +71123,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H2187" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2187" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2188">
@@ -71303,10 +71155,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2189">
@@ -71333,10 +71183,8 @@
       </c>
       <c r="F2189" t="inlineStr"/>
       <c r="G2189" t="inlineStr"/>
-      <c r="H2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2190">
@@ -71363,10 +71211,8 @@
       </c>
       <c r="F2190" t="inlineStr"/>
       <c r="G2190" t="inlineStr"/>
-      <c r="H2190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2191">
@@ -71393,10 +71239,8 @@
       </c>
       <c r="F2191" t="inlineStr"/>
       <c r="G2191" t="inlineStr"/>
-      <c r="H2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2192">
@@ -71427,10 +71271,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2192" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2192" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2193">
@@ -71457,10 +71299,8 @@
       </c>
       <c r="F2193" t="inlineStr"/>
       <c r="G2193" t="inlineStr"/>
-      <c r="H2193" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2193" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2194">
@@ -71487,10 +71327,8 @@
       </c>
       <c r="F2194" t="inlineStr"/>
       <c r="G2194" t="inlineStr"/>
-      <c r="H2194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2195">
@@ -71517,10 +71355,8 @@
       </c>
       <c r="F2195" t="inlineStr"/>
       <c r="G2195" t="inlineStr"/>
-      <c r="H2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2196">
@@ -71547,10 +71383,8 @@
       </c>
       <c r="F2196" t="inlineStr"/>
       <c r="G2196" t="inlineStr"/>
-      <c r="H2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2197">
@@ -71577,10 +71411,8 @@
       </c>
       <c r="F2197" t="inlineStr"/>
       <c r="G2197" t="inlineStr"/>
-      <c r="H2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2198">
@@ -71611,10 +71443,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H2198" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2198" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2199">
@@ -71645,10 +71475,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2199" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2200">
@@ -71679,10 +71507,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2200" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2200" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2201">
@@ -71705,10 +71531,8 @@
       <c r="E2201" t="inlineStr"/>
       <c r="F2201" t="inlineStr"/>
       <c r="G2201" t="inlineStr"/>
-      <c r="H2201" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2201" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2202">
@@ -71743,10 +71567,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2202" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2202" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2203">
@@ -71769,10 +71591,8 @@
       <c r="E2203" t="inlineStr"/>
       <c r="F2203" t="inlineStr"/>
       <c r="G2203" t="inlineStr"/>
-      <c r="H2203" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2203" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2204">
@@ -71799,10 +71619,8 @@
       </c>
       <c r="F2204" t="inlineStr"/>
       <c r="G2204" t="inlineStr"/>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2205">
@@ -71829,10 +71647,8 @@
       </c>
       <c r="F2205" t="inlineStr"/>
       <c r="G2205" t="inlineStr"/>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2206">
@@ -71855,10 +71671,8 @@
       <c r="E2206" t="inlineStr"/>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2207">
@@ -71881,10 +71695,8 @@
       <c r="E2207" t="inlineStr"/>
       <c r="F2207" t="inlineStr"/>
       <c r="G2207" t="inlineStr"/>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2208">
@@ -71907,10 +71719,8 @@
       <c r="E2208" t="inlineStr"/>
       <c r="F2208" t="inlineStr"/>
       <c r="G2208" t="inlineStr"/>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2209">
@@ -71933,10 +71743,8 @@
       <c r="E2209" t="inlineStr"/>
       <c r="F2209" t="inlineStr"/>
       <c r="G2209" t="inlineStr"/>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2210">
@@ -71959,10 +71767,8 @@
       <c r="E2210" t="inlineStr"/>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2211">
@@ -71985,10 +71791,8 @@
       <c r="E2211" t="inlineStr"/>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -72011,10 +71815,8 @@
       <c r="E2212" t="inlineStr"/>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -72045,10 +71847,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -72079,10 +71879,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -72109,10 +71907,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -72161,10 +71957,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2218">
@@ -72187,10 +71981,8 @@
       <c r="E2218" t="inlineStr"/>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2219">
@@ -72221,10 +72013,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2220">
@@ -72251,10 +72041,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -72281,10 +72069,8 @@
       </c>
       <c r="F2221" t="inlineStr"/>
       <c r="G2221" t="inlineStr"/>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -72315,10 +72101,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -72341,10 +72125,8 @@
       <c r="E2223" t="inlineStr"/>
       <c r="F2223" t="inlineStr"/>
       <c r="G2223" t="inlineStr"/>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2224">
@@ -72375,10 +72157,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -72409,10 +72189,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -72443,10 +72221,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2227">
@@ -72473,10 +72249,8 @@
       </c>
       <c r="F2227" t="inlineStr"/>
       <c r="G2227" t="inlineStr"/>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -72507,10 +72281,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -72541,10 +72313,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2230">
@@ -72575,10 +72345,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2231">
@@ -72609,10 +72377,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2232">
@@ -72643,10 +72409,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2233">
@@ -72677,10 +72441,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2234">
@@ -72711,10 +72473,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -72745,10 +72505,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2236">
@@ -72779,10 +72537,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2237">
@@ -72813,10 +72569,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -72847,10 +72601,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2239">
@@ -72881,10 +72633,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2240">
@@ -72915,10 +72665,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2241">
@@ -72949,10 +72697,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -72983,10 +72729,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2243">
@@ -73017,10 +72761,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2244">
@@ -73047,10 +72789,8 @@
       </c>
       <c r="F2244" t="inlineStr"/>
       <c r="G2244" t="inlineStr"/>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2245">
@@ -73081,10 +72821,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -73115,10 +72853,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -73149,10 +72885,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -73183,10 +72917,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -73217,10 +72949,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2250">
@@ -73251,10 +72981,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2251">
@@ -73285,10 +73013,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2252">
@@ -73315,10 +73041,8 @@
       </c>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr"/>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2253">
@@ -73349,10 +73073,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2254">
@@ -73383,10 +73105,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2255">
@@ -73417,10 +73137,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -73451,10 +73169,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -73485,10 +73201,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -73519,10 +73233,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -73545,10 +73257,8 @@
       <c r="E2259" t="inlineStr"/>
       <c r="F2259" t="inlineStr"/>
       <c r="G2259" t="inlineStr"/>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -73579,10 +73289,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -73613,10 +73321,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -73647,10 +73353,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -73673,10 +73377,8 @@
       <c r="E2263" t="inlineStr"/>
       <c r="F2263" t="inlineStr"/>
       <c r="G2263" t="inlineStr"/>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2263" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2264">
@@ -73703,10 +73405,8 @@
       </c>
       <c r="F2264" t="inlineStr"/>
       <c r="G2264" t="inlineStr"/>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -73737,10 +73437,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2266">
@@ -73771,10 +73469,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2267">
@@ -73805,10 +73501,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2268">
@@ -73839,10 +73533,8 @@
         </is>
       </c>
       <c r="G2268" t="inlineStr"/>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2269">
@@ -73869,10 +73561,8 @@
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr"/>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2270">
@@ -73907,10 +73597,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2271">
@@ -73945,10 +73633,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2272">
@@ -73979,10 +73665,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -74013,10 +73697,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2274">
@@ -74047,10 +73729,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2275">
@@ -74081,10 +73761,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -74115,10 +73793,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2277">
@@ -74149,10 +73825,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2278">
@@ -74183,10 +73857,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
@@ -74217,10 +73889,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2280">
@@ -74251,10 +73921,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2281">
@@ -74285,10 +73953,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2282">
@@ -74319,10 +73985,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2283">
@@ -74345,10 +74009,8 @@
       <c r="E2283" t="inlineStr"/>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
-      <c r="H2283" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2283" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2284">
@@ -74379,10 +74041,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2284" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2285">
@@ -74413,10 +74073,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2285" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2285" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2286">
@@ -74443,10 +74101,8 @@
       </c>
       <c r="F2286" t="inlineStr"/>
       <c r="G2286" t="inlineStr"/>
-      <c r="H2286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2287">
@@ -74473,10 +74129,8 @@
       </c>
       <c r="F2287" t="inlineStr"/>
       <c r="G2287" t="inlineStr"/>
-      <c r="H2287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2288">
@@ -74499,10 +74153,8 @@
       <c r="E2288" t="inlineStr"/>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr"/>
-      <c r="H2288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2289">
@@ -74529,10 +74181,8 @@
       </c>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
-      <c r="H2289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2290">
@@ -74559,10 +74209,8 @@
       </c>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
-      <c r="H2290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2291">
@@ -74585,10 +74233,8 @@
       </c>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr"/>
-      <c r="H2291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2292">
@@ -74615,10 +74261,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2293">
@@ -74645,10 +74289,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2294">
@@ -74675,112 +74317,138 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2295" t="inlineStr"/>
-      <c r="C2295" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
       <c r="D2295" t="inlineStr"/>
-      <c r="E2295" t="inlineStr"/>
+      <c r="E2295" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
       <c r="F2295" t="inlineStr"/>
-      <c r="G2295" t="inlineStr"/>
-      <c r="H2295" t="inlineStr"/>
+      <c r="G2295" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2295" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
-      <c r="E2296" t="inlineStr"/>
+      <c r="E2296" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F2296" t="inlineStr"/>
-      <c r="G2296" t="inlineStr"/>
+      <c r="G2296" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H2296" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2298" t="inlineStr"/>
       <c r="G2298" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H2298" t="inlineStr">
@@ -74792,63 +74460,67 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>$-8.82B</t>
         </is>
       </c>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
       <c r="E2300" t="inlineStr">
         <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F2300" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F2300" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
       <c r="G2300" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>$ 23.46B</t>
         </is>
       </c>
       <c r="H2300" t="inlineStr">
@@ -74860,29 +74532,29 @@
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$32.29B</t>
         </is>
       </c>
       <c r="H2301" t="inlineStr">
@@ -74894,63 +74566,63 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$ 23.5B</t>
         </is>
       </c>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H2303" t="inlineStr">
@@ -74962,97 +74634,97 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
       <c r="G2306" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2306" t="inlineStr">
@@ -75064,29 +74736,29 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
       <c r="E2307" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2307" t="inlineStr">
@@ -75098,29 +74770,29 @@
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
       <c r="G2308" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H2308" t="inlineStr">
@@ -75132,29 +74804,29 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
       <c r="E2309" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2309" t="inlineStr"/>
       <c r="G2309" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2309" t="inlineStr">
@@ -75166,29 +74838,29 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
       <c r="G2310" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2310" t="inlineStr">
@@ -75200,29 +74872,29 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
       <c r="E2311" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2311" t="inlineStr">
@@ -75234,27 +74906,31 @@
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
       <c r="E2312" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2312" t="inlineStr"/>
-      <c r="G2312" t="inlineStr"/>
+      <c r="G2312" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2312" t="inlineStr">
         <is>
           <t>3</t>
@@ -75264,23 +74940,23 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2313" t="inlineStr"/>
@@ -75294,109 +74970,109 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>7.0K</t>
         </is>
       </c>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
       <c r="G2315" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
@@ -75406,31 +75082,27 @@
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
@@ -75440,31 +75112,27 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
@@ -75474,21 +75142,17 @@
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
           <t>3</t>
@@ -75498,7 +75162,7 @@
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
@@ -75508,21 +75172,17 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G2320" t="inlineStr"/>
       <c r="H2320" t="inlineStr">
         <is>
           <t>3</t>
@@ -75532,69 +75192,57 @@
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2321" t="inlineStr"/>
-      <c r="G2321" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2321" t="inlineStr"/>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
       <c r="E2322" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2322" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2322" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F2322" t="inlineStr"/>
+      <c r="G2322" t="inlineStr"/>
       <c r="H2322" t="inlineStr">
         <is>
           <t>3</t>
@@ -75604,31 +75252,27 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
       <c r="E2323" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2323" t="inlineStr"/>
-      <c r="G2323" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2323" t="inlineStr"/>
       <c r="H2323" t="inlineStr">
         <is>
           <t>3</t>
@@ -75638,31 +75282,27 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
       <c r="E2324" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2324" t="inlineStr"/>
-      <c r="G2324" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
         <is>
           <t>3</t>
@@ -75672,165 +75312,149 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2325" t="inlineStr"/>
-      <c r="G2325" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
-      <c r="G2327" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2327" t="inlineStr"/>
       <c r="H2327" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2329" t="inlineStr">
@@ -75842,29 +75466,29 @@
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
       <c r="E2330" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2330" t="inlineStr">
@@ -75876,23 +75500,23 @@
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
@@ -75910,31 +75534,27 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr">
-        <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
+      <c r="G2332" t="inlineStr"/>
       <c r="H2332" t="inlineStr">
         <is>
           <t>3</t>
@@ -75944,29 +75564,29 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2333" t="inlineStr"/>
       <c r="G2333" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2333" t="inlineStr">
@@ -75978,29 +75598,29 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2334" t="inlineStr"/>
       <c r="G2334" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2334" t="inlineStr">
@@ -76012,23 +75632,23 @@
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F2335" t="inlineStr"/>
@@ -76042,169 +75662,165 @@
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
-      <c r="G2336" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
+      <c r="G2336" t="inlineStr"/>
       <c r="H2336" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
-      <c r="E2337" t="inlineStr">
-        <is>
-          <t>2.869M</t>
-        </is>
-      </c>
+      <c r="E2337" t="inlineStr"/>
       <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr">
-        <is>
-          <t>2.876M</t>
-        </is>
-      </c>
+      <c r="G2337" t="inlineStr"/>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
       <c r="G2338" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H2338" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H2339" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr"/>
+      <c r="G2340" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
@@ -76214,27 +75830,31 @@
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
+      <c r="G2341" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2341" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2342" t="inlineStr">
@@ -76244,27 +75864,31 @@
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr"/>
+      <c r="G2342" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
@@ -76274,17 +75898,21 @@
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr"/>
+      <c r="G2343" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2343" t="inlineStr">
         <is>
           <t>3</t>
@@ -76294,7 +75922,7 @@
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
@@ -76304,17 +75932,21 @@
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
       <c r="E2344" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr"/>
+      <c r="G2344" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2344" t="inlineStr">
         <is>
           <t>3</t>
@@ -76324,341 +75956,381 @@
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2345" t="inlineStr"/>
-      <c r="G2345" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2345" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2345" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2345" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr"/>
+      <c r="G2346" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2346" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
+      <c r="G2347" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2348" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2348" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr">
         <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2349" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2349" t="inlineStr">
+        <is>
           <t>0.5%</t>
         </is>
       </c>
-      <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
       <c r="H2349" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr"/>
+      <c r="G2350" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2351" t="inlineStr"/>
       <c r="G2351" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2351" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr"/>
       <c r="G2352" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
       <c r="G2353" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2353" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2354" t="inlineStr"/>
-      <c r="G2354" t="inlineStr"/>
+      <c r="G2354" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
       <c r="G2355" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H2355" t="inlineStr">
@@ -76670,61 +76342,65 @@
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2356" t="inlineStr"/>
       <c r="G2356" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr"/>
+      <c r="G2357" t="inlineStr">
+        <is>
+          <t>C$-1.9B</t>
+        </is>
+      </c>
       <c r="H2357" t="inlineStr">
         <is>
           <t>3</t>
@@ -76734,25 +76410,21 @@
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
-      <c r="E2358" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2358" t="inlineStr"/>
       <c r="F2358" t="inlineStr"/>
       <c r="G2358" t="inlineStr"/>
       <c r="H2358" t="inlineStr">
@@ -76764,17 +76436,17 @@
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
@@ -76788,31 +76460,27 @@
       </c>
     </row>
     <row r="2360">
-      <c r="A2360" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2360" t="inlineStr"/>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>MXN-1064.93B</t>
         </is>
       </c>
       <c r="F2360" t="inlineStr"/>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>MXN-1120.0B</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
@@ -76822,167 +76490,147 @@
       </c>
     </row>
     <row r="2361">
-      <c r="A2361" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2361" t="inlineStr"/>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2361" t="inlineStr"/>
       <c r="G2361" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2361" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2362">
-      <c r="A2362" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2362" t="inlineStr"/>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2362" t="inlineStr"/>
       <c r="G2362" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2363">
-      <c r="A2363" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2363" t="inlineStr"/>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
       <c r="E2363" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2363" t="inlineStr"/>
       <c r="G2363" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2363" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2364">
-      <c r="A2364" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2364" t="inlineStr"/>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2364" t="inlineStr"/>
       <c r="G2364" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2364" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2365">
-      <c r="A2365" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2365" t="inlineStr"/>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
       <c r="G2365" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2365" t="inlineStr">
@@ -76994,67 +76642,43 @@
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2366" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2366" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr"/>
+      <c r="C2366" t="inlineStr"/>
       <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E2366" t="inlineStr"/>
       <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H2366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2366" t="inlineStr"/>
+      <c r="H2366" t="inlineStr"/>
     </row>
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2367" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="F2367" t="inlineStr"/>
       <c r="G2367" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2367" t="inlineStr">
@@ -77066,277 +76690,237 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
       <c r="E2368" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2368" t="inlineStr"/>
       <c r="G2368" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H2368" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2370" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2370" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2370" t="inlineStr"/>
+      <c r="C2370" t="inlineStr"/>
       <c r="D2370" t="inlineStr"/>
-      <c r="E2370" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2370" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2370" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2370" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E2370" t="inlineStr"/>
+      <c r="F2370" t="inlineStr"/>
+      <c r="G2370" t="inlineStr"/>
+      <c r="H2370" t="inlineStr"/>
     </row>
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2371" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2371" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="F2371" t="inlineStr"/>
+      <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
       <c r="G2372" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2372" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H2373" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
       <c r="G2374" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
-      <c r="E2375" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2375" t="inlineStr"/>
       <c r="F2375" t="inlineStr"/>
-      <c r="G2375" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2375" t="inlineStr"/>
       <c r="H2375" t="inlineStr">
         <is>
           <t>2</t>
@@ -77346,29 +76930,29 @@
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
@@ -77380,99 +76964,91 @@
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr"/>
       <c r="G2377" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
       <c r="E2378" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2378" t="inlineStr"/>
-      <c r="G2378" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+      <c r="G2378" t="inlineStr"/>
       <c r="H2378" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2379" t="inlineStr"/>
-      <c r="G2379" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
+      <c r="G2379" t="inlineStr"/>
       <c r="H2379" t="inlineStr">
         <is>
           <t>3</t>
@@ -77482,23 +77058,31 @@
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr"/>
+      <c r="E2380" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2380" t="inlineStr"/>
-      <c r="G2380" t="inlineStr"/>
+      <c r="G2380" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="H2380" t="inlineStr">
         <is>
           <t>3</t>
@@ -77508,143 +77092,163 @@
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr"/>
-      <c r="F2381" t="inlineStr"/>
-      <c r="G2381" t="inlineStr"/>
+      <c r="E2381" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2381" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="G2381" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2382">
-      <c r="A2382" t="inlineStr"/>
+      <c r="A2382" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>Fiscal BalanceDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
       <c r="E2382" t="inlineStr">
         <is>
-          <t>MXN-1064.93B</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2382" t="inlineStr"/>
       <c r="G2382" t="inlineStr">
         <is>
-          <t>MXN-1120.0B</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2382" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2383">
-      <c r="A2383" t="inlineStr"/>
+      <c r="A2383" t="inlineStr">
+        <is>
+          <t>07:15 AM</t>
+        </is>
+      </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
       <c r="E2383" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="F2383" t="inlineStr"/>
       <c r="G2383" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2383" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2384">
-      <c r="A2384" t="inlineStr"/>
+      <c r="A2384" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2384" t="inlineStr"/>
-      <c r="G2384" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G2384" t="inlineStr"/>
       <c r="H2384" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2385">
-      <c r="A2385" t="inlineStr"/>
+      <c r="A2385" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F2385" t="inlineStr"/>
-      <c r="G2385" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G2385" t="inlineStr"/>
       <c r="H2385" t="inlineStr">
         <is>
           <t>3</t>
@@ -77652,29 +77256,29 @@
       </c>
     </row>
     <row r="2386">
-      <c r="A2386" t="inlineStr"/>
+      <c r="A2386" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F2386" t="inlineStr"/>
-      <c r="G2386" t="inlineStr">
-        <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
+      <c r="G2386" t="inlineStr"/>
       <c r="H2386" t="inlineStr">
         <is>
           <t>3</t>
@@ -77682,29 +77286,29 @@
       </c>
     </row>
     <row r="2387">
-      <c r="A2387" t="inlineStr"/>
+      <c r="A2387" t="inlineStr">
+        <is>
+          <t>10:15 AM</t>
+        </is>
+      </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
+      <c r="G2387" t="inlineStr"/>
       <c r="H2387" t="inlineStr">
         <is>
           <t>3</t>
@@ -77714,179 +77318,215 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2388" t="inlineStr"/>
-      <c r="C2388" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2388" t="inlineStr"/>
-      <c r="E2388" t="inlineStr"/>
-      <c r="F2388" t="inlineStr"/>
-      <c r="G2388" t="inlineStr"/>
-      <c r="H2388" t="inlineStr"/>
+      <c r="E2388" t="inlineStr">
+        <is>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2388" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G2388" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H2388" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
       <c r="E2389" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr"/>
       <c r="H2389" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
       <c r="E2390" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr"/>
       <c r="H2390" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
       <c r="E2391" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2391" t="inlineStr"/>
       <c r="G2391" t="inlineStr"/>
       <c r="H2391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2392" t="inlineStr"/>
-      <c r="C2392" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYJAN</t>
+        </is>
+      </c>
       <c r="D2392" t="inlineStr"/>
-      <c r="E2392" t="inlineStr"/>
+      <c r="E2392" t="inlineStr">
+        <is>
+          <t>44.38%</t>
+        </is>
+      </c>
       <c r="F2392" t="inlineStr"/>
       <c r="G2392" t="inlineStr"/>
-      <c r="H2392" t="inlineStr"/>
+      <c r="H2392" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
       <c r="E2393" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2393" t="inlineStr"/>
       <c r="G2393" t="inlineStr"/>
       <c r="H2393" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
       <c r="E2394" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2394" t="inlineStr"/>
-      <c r="G2394" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2394" t="inlineStr"/>
       <c r="H2394" t="inlineStr">
         <is>
           <t>3</t>
@@ -77896,31 +77536,27 @@
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
       <c r="E2395" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2395" t="inlineStr"/>
-      <c r="G2395" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+      <c r="G2395" t="inlineStr"/>
       <c r="H2395" t="inlineStr">
         <is>
           <t>3</t>
@@ -77930,51 +77566,47 @@
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2396" t="inlineStr"/>
-      <c r="G2396" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2396" t="inlineStr"/>
       <c r="H2396" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
@@ -77983,38 +77615,34 @@
       <c r="G2397" t="inlineStr"/>
       <c r="H2397" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
       <c r="E2398" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2398" t="inlineStr"/>
-      <c r="G2398" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2398" t="inlineStr"/>
       <c r="H2398" t="inlineStr">
         <is>
           <t>2</t>
@@ -78024,31 +77652,27 @@
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2399" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
       <c r="E2399" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2399" t="inlineStr"/>
       <c r="H2399" t="inlineStr">
         <is>
           <t>2</t>
@@ -78058,155 +77682,183 @@
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2400" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
       <c r="E2400" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2400" t="inlineStr"/>
-      <c r="G2400" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2400" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2400" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2400" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2401" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
       <c r="E2401" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2401" t="inlineStr"/>
-      <c r="G2401" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2401" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="G2401" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="H2401" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2402" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
       <c r="E2402" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2402" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2402" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2402" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2402" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2403" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
       <c r="E2403" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2403" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2403" t="inlineStr"/>
       <c r="G2403" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2403" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2404" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
-      <c r="E2404" t="inlineStr"/>
-      <c r="F2404" t="inlineStr"/>
-      <c r="G2404" t="inlineStr"/>
+      <c r="E2404" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2404" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="G2404" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="H2404" t="inlineStr">
         <is>
           <t>2</t>
@@ -78216,31 +77868,23 @@
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2405" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
-      <c r="E2405" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+      <c r="E2405" t="inlineStr"/>
       <c r="F2405" t="inlineStr"/>
-      <c r="G2405" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+      <c r="G2405" t="inlineStr"/>
       <c r="H2405" t="inlineStr">
         <is>
           <t>1</t>
@@ -78250,23 +77894,23 @@
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2406" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2406" t="inlineStr"/>
       <c r="E2406" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2406" t="inlineStr"/>
@@ -78280,53 +77924,49 @@
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2407" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2407" t="inlineStr"/>
-      <c r="E2407" t="inlineStr">
-        <is>
-          <t>2.26%</t>
-        </is>
-      </c>
+      <c r="E2407" t="inlineStr"/>
       <c r="F2407" t="inlineStr"/>
       <c r="G2407" t="inlineStr"/>
       <c r="H2407" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2408">
       <c r="A2408" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2408" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2408" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2408" t="inlineStr"/>
       <c r="E2408" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2408" t="inlineStr"/>
@@ -78340,91 +77980,83 @@
     <row r="2409">
       <c r="A2409" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2409" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2409" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2409" t="inlineStr"/>
       <c r="E2409" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2409" t="inlineStr"/>
       <c r="G2409" t="inlineStr"/>
       <c r="H2409" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2410">
       <c r="A2410" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2410" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2410" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2410" t="inlineStr"/>
       <c r="E2410" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2410" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2410" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2410" t="inlineStr"/>
+      <c r="G2410" t="inlineStr"/>
       <c r="H2410" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2411">
       <c r="A2411" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2411" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2411" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2411" t="inlineStr"/>
       <c r="E2411" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2411" t="inlineStr"/>
@@ -78438,442 +78070,62 @@
     <row r="2412">
       <c r="A2412" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2412" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2412" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2412" t="inlineStr"/>
       <c r="E2412" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2412" t="inlineStr"/>
       <c r="G2412" t="inlineStr"/>
       <c r="H2412" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2413">
       <c r="A2413" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2413" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2413" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2413" t="inlineStr"/>
       <c r="E2413" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2413" t="inlineStr"/>
-      <c r="G2413" t="inlineStr"/>
+      <c r="G2413" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2414">
-      <c r="A2414" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B2414" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2414" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2414" t="inlineStr"/>
-      <c r="E2414" t="inlineStr">
-        <is>
-          <t>44.38%</t>
-        </is>
-      </c>
-      <c r="F2414" t="inlineStr"/>
-      <c r="G2414" t="inlineStr"/>
-      <c r="H2414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2415">
-      <c r="A2415" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B2415" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2415" t="inlineStr">
-        <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr">
-        <is>
-          <t>49.1</t>
-        </is>
-      </c>
-      <c r="F2415" t="inlineStr"/>
-      <c r="G2415" t="inlineStr"/>
-      <c r="H2415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2416">
-      <c r="A2416" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B2416" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2416" t="inlineStr">
-        <is>
-          <t>PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2416" t="inlineStr"/>
-      <c r="E2416" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2416" t="inlineStr"/>
-      <c r="G2416" t="inlineStr"/>
-      <c r="H2416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2417">
-      <c r="A2417" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B2417" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2417" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2417" t="inlineStr"/>
-      <c r="E2417" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
-      <c r="F2417" t="inlineStr"/>
-      <c r="G2417" t="inlineStr"/>
-      <c r="H2417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2418">
-      <c r="A2418" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B2418" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2418" t="inlineStr">
-        <is>
-          <t>Unemployment ChangeJAN</t>
-        </is>
-      </c>
-      <c r="D2418" t="inlineStr"/>
-      <c r="E2418" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
-      <c r="F2418" t="inlineStr"/>
-      <c r="G2418" t="inlineStr"/>
-      <c r="H2418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2419">
-      <c r="A2419" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B2419" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2419" t="inlineStr">
-        <is>
-          <t>Tourist Arrivals YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2419" t="inlineStr"/>
-      <c r="E2419" t="inlineStr"/>
-      <c r="F2419" t="inlineStr"/>
-      <c r="G2419" t="inlineStr"/>
-      <c r="H2419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2420">
-      <c r="A2420" t="inlineStr">
-        <is>
-          <t>01:45 PM</t>
-        </is>
-      </c>
-      <c r="B2420" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2420" t="inlineStr">
-        <is>
-          <t>HCOB Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2420" t="inlineStr"/>
-      <c r="E2420" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
-      <c r="F2420" t="inlineStr"/>
-      <c r="G2420" t="inlineStr"/>
-      <c r="H2420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2421">
-      <c r="A2421" t="inlineStr">
-        <is>
-          <t>02:15 PM</t>
-        </is>
-      </c>
-      <c r="B2421" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2421" t="inlineStr">
-        <is>
-          <t>HCOB Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2421" t="inlineStr"/>
-      <c r="E2421" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2421" t="inlineStr"/>
-      <c r="G2421" t="inlineStr"/>
-      <c r="H2421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2422">
-      <c r="A2422" t="inlineStr">
-        <is>
-          <t>02:20 PM</t>
-        </is>
-      </c>
-      <c r="B2422" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2422" t="inlineStr">
-        <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2422" t="inlineStr"/>
-      <c r="E2422" t="inlineStr">
-        <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2422" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2422" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="H2422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2423">
-      <c r="A2423" t="inlineStr">
-        <is>
-          <t>02:25 PM</t>
-        </is>
-      </c>
-      <c r="B2423" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2423" t="inlineStr">
-        <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2423" t="inlineStr"/>
-      <c r="E2423" t="inlineStr">
-        <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2423" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2423" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="H2423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2424">
-      <c r="A2424" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B2424" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2424" t="inlineStr">
-        <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2424" t="inlineStr"/>
-      <c r="E2424" t="inlineStr">
-        <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2424" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2424" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="H2424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2425">
-      <c r="A2425" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B2425" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2425" t="inlineStr">
-        <is>
-          <t>ABSA Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2425" t="inlineStr"/>
-      <c r="E2425" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2425" t="inlineStr"/>
-      <c r="G2425" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="H2425" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2423"/>
+  <dimension ref="A1:H2405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71939,10 +71939,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71973,10 +71971,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -72007,10 +72003,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -72045,10 +72039,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2220">
@@ -72083,10 +72075,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2221">
@@ -72121,10 +72111,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2222">
@@ -72155,10 +72143,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2223">
@@ -72189,10 +72175,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -72219,10 +72203,8 @@
       </c>
       <c r="F2224" t="inlineStr"/>
       <c r="G2224" t="inlineStr"/>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -72253,10 +72235,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2226">
@@ -72287,10 +72267,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2227">
@@ -72321,10 +72299,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2228">
@@ -72355,10 +72331,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -72389,10 +72363,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -72427,10 +72399,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2231">
@@ -72465,10 +72435,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2232">
@@ -72499,10 +72467,8 @@
         </is>
       </c>
       <c r="G2232" t="inlineStr"/>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2233">
@@ -72537,10 +72503,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2234">
@@ -72575,10 +72539,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -72609,10 +72571,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2236">
@@ -72643,10 +72603,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2237">
@@ -72677,10 +72635,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -72711,10 +72667,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -72745,10 +72699,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2240">
@@ -72771,10 +72723,8 @@
       <c r="E2240" t="inlineStr"/>
       <c r="F2240" t="inlineStr"/>
       <c r="G2240" t="inlineStr"/>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2241">
@@ -72805,10 +72755,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2242">
@@ -72839,10 +72787,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2243">
@@ -72873,10 +72819,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2244">
@@ -72899,10 +72843,8 @@
       <c r="E2244" t="inlineStr"/>
       <c r="F2244" t="inlineStr"/>
       <c r="G2244" t="inlineStr"/>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72929,10 +72871,8 @@
       </c>
       <c r="F2245" t="inlineStr"/>
       <c r="G2245" t="inlineStr"/>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2246">
@@ -72963,10 +72903,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2247">
@@ -72997,10 +72935,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -73031,10 +72967,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2249">
@@ -73065,10 +72999,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -73099,10 +73031,8 @@
         </is>
       </c>
       <c r="G2250" t="inlineStr"/>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -73129,10 +73059,8 @@
       </c>
       <c r="F2251" t="inlineStr"/>
       <c r="G2251" t="inlineStr"/>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -73167,10 +73095,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2253">
@@ -73205,10 +73131,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2254">
@@ -73239,10 +73163,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -73273,10 +73195,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -73311,10 +73231,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2257">
@@ -73345,10 +73263,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2258">
@@ -73379,10 +73295,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2259">
@@ -73413,10 +73327,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -73447,10 +73359,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -73481,10 +73391,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -73515,10 +73423,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -73549,10 +73455,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -73583,10 +73487,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -73609,10 +73511,8 @@
       <c r="E2265" t="inlineStr"/>
       <c r="F2265" t="inlineStr"/>
       <c r="G2265" t="inlineStr"/>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2266">
@@ -73643,10 +73543,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2267">
@@ -73677,10 +73575,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2268">
@@ -73707,10 +73603,8 @@
       </c>
       <c r="F2268" t="inlineStr"/>
       <c r="G2268" t="inlineStr"/>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2269">
@@ -73737,10 +73631,8 @@
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr"/>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2270">
@@ -73767,10 +73659,8 @@
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -73797,10 +73687,8 @@
       </c>
       <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr"/>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -73827,10 +73715,8 @@
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr"/>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -73853,10 +73739,8 @@
       </c>
       <c r="F2273" t="inlineStr"/>
       <c r="G2273" t="inlineStr"/>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2274">
@@ -73883,10 +73767,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2275">
@@ -73913,10 +73795,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2276">
@@ -73943,86 +73823,108 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2277" t="inlineStr"/>
-      <c r="C2277" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
       <c r="D2277" t="inlineStr"/>
-      <c r="E2277" t="inlineStr"/>
-      <c r="F2277" t="inlineStr"/>
-      <c r="G2277" t="inlineStr"/>
-      <c r="H2277" t="inlineStr"/>
+      <c r="E2277" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F2277" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2277" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2277" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
       <c r="E2278" t="inlineStr">
         <is>
-          <t>$6.88T</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2278" t="inlineStr"/>
-      <c r="G2278" t="inlineStr"/>
+      <c r="G2278" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H2278" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2279" t="inlineStr"/>
       <c r="E2279" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2279" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>$-7.46B</t>
+        </is>
+      </c>
+      <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>$-8.82B</t>
         </is>
       </c>
       <c r="H2279" t="inlineStr">
@@ -74034,33 +73936,33 @@
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$22.29B</t>
         </is>
       </c>
       <c r="F2280" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$23.46B</t>
         </is>
       </c>
       <c r="G2280" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$ 23.46B</t>
         </is>
       </c>
       <c r="H2280" t="inlineStr">
@@ -74072,33 +73974,29 @@
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
       <c r="E2281" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2281" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>$29.75B</t>
+        </is>
+      </c>
+      <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>$32.29B</t>
         </is>
       </c>
       <c r="H2281" t="inlineStr">
@@ -74110,29 +74008,29 @@
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F2282" t="inlineStr"/>
       <c r="G2282" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>$ 23.5B</t>
         </is>
       </c>
       <c r="H2282" t="inlineStr">
@@ -74144,67 +74042,63 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="F2284" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="F2284" t="inlineStr"/>
       <c r="G2284" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2284" t="inlineStr">
@@ -74216,101 +74110,97 @@
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2285" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2285" t="inlineStr"/>
       <c r="G2285" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
       <c r="G2286" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
       <c r="G2287" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2287" t="inlineStr">
@@ -74322,67 +74212,63 @@
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H2288" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
       <c r="E2289" t="inlineStr">
         <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="F2289" t="inlineStr"/>
+      <c r="G2289" t="inlineStr">
+        <is>
           <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2289" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G2289" t="inlineStr">
-        <is>
-          <t>0.4%</t>
         </is>
       </c>
       <c r="H2289" t="inlineStr">
@@ -74394,29 +74280,29 @@
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
       <c r="E2290" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2290" t="inlineStr">
@@ -74428,29 +74314,29 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2291" t="inlineStr">
@@ -74462,29 +74348,29 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2292" t="inlineStr"/>
       <c r="G2292" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2292" t="inlineStr">
@@ -74496,31 +74382,27 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
-      <c r="G2293" t="inlineStr">
-        <is>
-          <t>S$ 818.2B</t>
-        </is>
-      </c>
+      <c r="G2293" t="inlineStr"/>
       <c r="H2293" t="inlineStr">
         <is>
           <t>3</t>
@@ -74530,93 +74412,105 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>0.602%</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr"/>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G2294" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H2294" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2295" t="inlineStr"/>
-      <c r="G2295" t="inlineStr"/>
+      <c r="G2295" t="inlineStr">
+        <is>
+          <t>2.876M</t>
+        </is>
+      </c>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2296" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="G2296" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2296" t="inlineStr">
@@ -74628,65 +74522,53 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
-      <c r="E2297" t="inlineStr">
-        <is>
-          <t>-10.2%</t>
-        </is>
-      </c>
+      <c r="E2297" t="inlineStr"/>
       <c r="F2297" t="inlineStr"/>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+      <c r="G2297" t="inlineStr"/>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
           <t>3</t>
@@ -74696,7 +74578,7 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
@@ -74706,35 +74588,27 @@
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2299" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2299" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2299" t="inlineStr"/>
+      <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
@@ -74744,93 +74618,77 @@
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
       <c r="E2300" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2300" t="inlineStr"/>
-      <c r="G2300" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
-      <c r="G2301" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2301" t="inlineStr"/>
       <c r="H2301" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2302" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2302" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2302" t="inlineStr"/>
+      <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
           <t>3</t>
@@ -74840,31 +74698,27 @@
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
-      <c r="G2303" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2303" t="inlineStr"/>
       <c r="H2303" t="inlineStr">
         <is>
           <t>3</t>
@@ -74874,31 +74728,27 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2304" t="inlineStr"/>
       <c r="H2304" t="inlineStr">
         <is>
           <t>3</t>
@@ -74908,167 +74758,147 @@
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
-      <c r="G2305" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2305" t="inlineStr"/>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2306" t="inlineStr"/>
       <c r="H2306" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
       <c r="E2307" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
       <c r="E2309" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
           <t>3</t>
@@ -75078,29 +74908,29 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
       <c r="G2310" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2310" t="inlineStr">
@@ -75112,12 +74942,12 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
@@ -75128,13 +74958,13 @@
       <c r="D2311" t="inlineStr"/>
       <c r="E2311" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2311" t="inlineStr">
@@ -75146,12 +74976,12 @@
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
@@ -75162,13 +74992,13 @@
       <c r="D2312" t="inlineStr"/>
       <c r="E2312" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2312" t="inlineStr"/>
       <c r="G2312" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2312" t="inlineStr">
@@ -75180,29 +75010,29 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2313" t="inlineStr"/>
       <c r="G2313" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>INR-9700.0B</t>
         </is>
       </c>
       <c r="H2313" t="inlineStr">
@@ -75214,29 +75044,29 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2314" t="inlineStr">
@@ -75248,27 +75078,31 @@
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr"/>
+      <c r="G2315" t="inlineStr">
+        <is>
+          <t>BRL-103.0B</t>
+        </is>
+      </c>
       <c r="H2315" t="inlineStr">
         <is>
           <t>3</t>
@@ -75278,203 +75112,199 @@
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F2316" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="G2316" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="F2316" t="inlineStr"/>
+      <c r="G2316" t="inlineStr"/>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>2.876M</t>
-        </is>
-      </c>
+      <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2318" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G2318" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>$623.98B</t>
+        </is>
+      </c>
+      <c r="F2318" t="inlineStr"/>
+      <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
-      <c r="E2319" t="inlineStr"/>
+      <c r="E2319" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr"/>
+      <c r="G2319" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2321" t="inlineStr"/>
-      <c r="G2321" t="inlineStr"/>
+      <c r="G2321" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
@@ -75484,27 +75314,35 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
       <c r="E2322" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2322" t="inlineStr"/>
-      <c r="G2322" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2322" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G2322" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2322" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
@@ -75514,27 +75352,31 @@
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
       <c r="E2323" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2323" t="inlineStr"/>
-      <c r="G2323" t="inlineStr"/>
+      <c r="G2323" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2323" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
@@ -75544,17 +75386,21 @@
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
       <c r="E2324" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2324" t="inlineStr"/>
-      <c r="G2324" t="inlineStr"/>
+      <c r="G2324" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2324" t="inlineStr">
         <is>
           <t>3</t>
@@ -75564,7 +75410,7 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
@@ -75574,17 +75420,25 @@
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2325" t="inlineStr"/>
-      <c r="G2325" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2325" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G2325" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2325" t="inlineStr">
         <is>
           <t>3</t>
@@ -75594,379 +75448,407 @@
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2326" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2326" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
-      <c r="G2327" t="inlineStr"/>
+      <c r="G2327" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2327" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr"/>
+      <c r="G2328" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2329" t="inlineStr"/>
-      <c r="G2329" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2329" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2329" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2329" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
       <c r="E2330" t="inlineStr">
         <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2330" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2330" t="inlineStr">
+        <is>
           <t>0.5%</t>
         </is>
       </c>
-      <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
-      <c r="G2331" t="inlineStr"/>
+      <c r="G2331" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2331" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2332" t="inlineStr"/>
       <c r="G2332" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2332" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2333" t="inlineStr"/>
       <c r="G2333" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2333" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="E2334" t="inlineStr"/>
       <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2334" t="inlineStr"/>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2335" t="inlineStr"/>
       <c r="G2335" t="inlineStr">
         <is>
-          <t>INR-9700.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2335" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2336" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
       <c r="G2337" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H2337" t="inlineStr">
@@ -75978,57 +75860,65 @@
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H2338" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>C$-1.9B</t>
+        </is>
+      </c>
       <c r="H2339" t="inlineStr">
         <is>
           <t>3</t>
@@ -76038,25 +75928,21 @@
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr">
-        <is>
-          <t>$623.98B</t>
-        </is>
-      </c>
+      <c r="E2340" t="inlineStr"/>
       <c r="F2340" t="inlineStr"/>
       <c r="G2340" t="inlineStr"/>
       <c r="H2340" t="inlineStr">
@@ -76068,31 +75954,23 @@
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E2341" t="inlineStr"/>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2341" t="inlineStr"/>
       <c r="H2341" t="inlineStr">
         <is>
           <t>3</t>
@@ -76100,87 +75978,75 @@
       </c>
     </row>
     <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2342" t="inlineStr"/>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>MXN-1064.93B</t>
         </is>
       </c>
       <c r="F2342" t="inlineStr"/>
       <c r="G2342" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>MXN-1120.0B</t>
         </is>
       </c>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2343" t="inlineStr"/>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2343" t="inlineStr"/>
       <c r="G2343" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2344" t="inlineStr"/>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
@@ -76189,82 +76055,70 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="F2344" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="F2344" t="inlineStr"/>
       <c r="G2344" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2344" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2345">
-      <c r="A2345" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2345" t="inlineStr"/>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2345" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2346">
-      <c r="A2346" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2346" t="inlineStr"/>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
       <c r="G2346" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2346" t="inlineStr">
@@ -76274,35 +76128,27 @@
       </c>
     </row>
     <row r="2347">
-      <c r="A2347" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2347" t="inlineStr"/>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2347" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>-4.9%</t>
+        </is>
+      </c>
+      <c r="F2347" t="inlineStr"/>
       <c r="G2347" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2347" t="inlineStr">
@@ -76312,249 +76158,189 @@
       </c>
     </row>
     <row r="2348">
-      <c r="A2348" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2348" t="inlineStr"/>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2348" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F2348" t="inlineStr"/>
       <c r="G2348" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2349" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2349" t="inlineStr">
-        <is>
-          <t>GDP MoM PrelDEC</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2349" t="inlineStr"/>
+      <c r="C2349" t="inlineStr"/>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="E2349" t="inlineStr"/>
       <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2349" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2349" t="inlineStr"/>
+      <c r="H2349" t="inlineStr"/>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
       <c r="G2350" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2351" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F2351" t="inlineStr"/>
       <c r="G2351" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H2351" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2352" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F2352" t="inlineStr"/>
       <c r="G2352" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2353" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2353" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2353" t="inlineStr"/>
+      <c r="C2353" t="inlineStr"/>
       <c r="D2353" t="inlineStr"/>
-      <c r="E2353" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E2353" t="inlineStr"/>
       <c r="F2353" t="inlineStr"/>
-      <c r="G2353" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2353" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2353" t="inlineStr"/>
+      <c r="H2353" t="inlineStr"/>
     </row>
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F2354" t="inlineStr"/>
-      <c r="G2354" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2354" t="inlineStr"/>
       <c r="H2354" t="inlineStr">
         <is>
           <t>2</t>
@@ -76564,125 +76350,125 @@
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
       <c r="G2355" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
-      <c r="E2356" t="inlineStr"/>
+      <c r="E2356" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2356" t="inlineStr"/>
-      <c r="G2356" t="inlineStr"/>
+      <c r="G2356" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
       <c r="G2357" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2357" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
-      <c r="E2358" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="E2358" t="inlineStr"/>
       <c r="F2358" t="inlineStr"/>
-      <c r="G2358" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G2358" t="inlineStr"/>
       <c r="H2358" t="inlineStr">
         <is>
           <t>2</t>
@@ -76692,63 +76478,63 @@
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2359" t="inlineStr"/>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2360" t="inlineStr"/>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
@@ -76760,31 +76546,27 @@
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2361" t="inlineStr"/>
-      <c r="G2361" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
+      <c r="G2361" t="inlineStr"/>
       <c r="H2361" t="inlineStr">
         <is>
           <t>3</t>
@@ -76794,21 +76576,25 @@
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr"/>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="F2362" t="inlineStr"/>
       <c r="G2362" t="inlineStr"/>
       <c r="H2362" t="inlineStr">
@@ -76820,23 +76606,31 @@
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr"/>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr"/>
+      <c r="G2363" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="H2363" t="inlineStr">
         <is>
           <t>3</t>
@@ -76844,147 +76638,175 @@
       </c>
     </row>
     <row r="2364">
-      <c r="A2364" t="inlineStr"/>
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>Fiscal BalanceDEC</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2364" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2364" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="G2364" t="inlineStr">
         <is>
-          <t>MXN-1120.0B</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="H2364" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2365">
-      <c r="A2365" t="inlineStr"/>
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
       <c r="G2365" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2365" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2366">
-      <c r="A2366" t="inlineStr"/>
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t>07:15 AM</t>
+        </is>
+      </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2366" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2366" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2366" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2366" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2367">
-      <c r="A2367" t="inlineStr"/>
+      <c r="A2367" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
       <c r="G2367" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H2367" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2368">
-      <c r="A2368" t="inlineStr"/>
+      <c r="A2368" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
       <c r="E2368" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F2368" t="inlineStr"/>
       <c r="G2368" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H2368" t="inlineStr">
@@ -76994,27 +76816,31 @@
       </c>
     </row>
     <row r="2369">
-      <c r="A2369" t="inlineStr"/>
+      <c r="A2369" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
@@ -77024,27 +76850,31 @@
       </c>
     </row>
     <row r="2370">
-      <c r="A2370" t="inlineStr"/>
+      <c r="A2370" t="inlineStr">
+        <is>
+          <t>10:15 AM</t>
+        </is>
+      </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H2370" t="inlineStr">
@@ -77056,21 +76886,45 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2371" t="inlineStr"/>
-      <c r="C2371" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C2371" t="inlineStr">
+        <is>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2371" t="inlineStr"/>
-      <c r="E2371" t="inlineStr"/>
-      <c r="F2371" t="inlineStr"/>
-      <c r="G2371" t="inlineStr"/>
-      <c r="H2371" t="inlineStr"/>
+      <c r="E2371" t="inlineStr">
+        <is>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2371" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G2371" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H2371" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
@@ -77080,55 +76934,47 @@
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
-      <c r="G2372" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
-      <c r="G2373" t="inlineStr">
-        <is>
-          <t>$0.9B</t>
-        </is>
-      </c>
+      <c r="G2373" t="inlineStr"/>
       <c r="H2373" t="inlineStr">
         <is>
           <t>3</t>
@@ -77138,71 +76984,83 @@
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
-      <c r="G2374" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2374" t="inlineStr"/>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2375" t="inlineStr"/>
-      <c r="C2375" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2375" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2375" t="inlineStr"/>
-      <c r="E2375" t="inlineStr"/>
+      <c r="E2375" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2375" t="inlineStr"/>
       <c r="G2375" t="inlineStr"/>
-      <c r="H2375" t="inlineStr"/>
+      <c r="H2375" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
@@ -77216,31 +77074,27 @@
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr"/>
-      <c r="G2377" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2377" t="inlineStr"/>
       <c r="H2377" t="inlineStr">
         <is>
           <t>3</t>
@@ -77250,31 +77104,27 @@
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
       <c r="E2378" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2378" t="inlineStr"/>
-      <c r="G2378" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2378" t="inlineStr"/>
       <c r="H2378" t="inlineStr">
         <is>
           <t>3</t>
@@ -77284,31 +77134,27 @@
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2379" t="inlineStr"/>
-      <c r="G2379" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2379" t="inlineStr"/>
       <c r="H2379" t="inlineStr">
         <is>
           <t>3</t>
@@ -77318,21 +77164,25 @@
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr"/>
+      <c r="E2380" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr"/>
       <c r="H2380" t="inlineStr">
@@ -77344,65 +77194,53 @@
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2381" t="inlineStr"/>
       <c r="F2381" t="inlineStr"/>
-      <c r="G2381" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
       <c r="E2382" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2382" t="inlineStr"/>
-      <c r="G2382" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
         <is>
           <t>2</t>
@@ -77412,127 +77250,139 @@
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
       <c r="E2383" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2383" t="inlineStr"/>
       <c r="G2383" t="inlineStr"/>
       <c r="H2383" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2384" t="inlineStr"/>
-      <c r="G2384" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2384" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2384" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2384" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2385" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2385" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2385" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2385" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2386" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2386" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2386" t="inlineStr">
@@ -77544,205 +77394,181 @@
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2387" t="inlineStr"/>
       <c r="G2387" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2387" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2388" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2388" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2388" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
-      <c r="E2389" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2389" t="inlineStr"/>
       <c r="F2389" t="inlineStr"/>
-      <c r="G2389" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2389" t="inlineStr"/>
       <c r="H2389" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
       <c r="E2390" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2390" t="inlineStr"/>
-      <c r="G2390" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2390" t="inlineStr"/>
       <c r="H2390" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
-      <c r="E2391" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2391" t="inlineStr"/>
       <c r="F2391" t="inlineStr"/>
-      <c r="G2391" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2391" t="inlineStr"/>
       <c r="H2391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2392" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
       <c r="E2392" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2392" t="inlineStr"/>
-      <c r="G2392" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2392" t="inlineStr"/>
       <c r="H2392" t="inlineStr">
         <is>
           <t>3</t>
@@ -77752,91 +77578,83 @@
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
       <c r="E2393" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2393" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2393" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2393" t="inlineStr"/>
+      <c r="G2393" t="inlineStr"/>
       <c r="H2393" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
       <c r="E2394" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2394" t="inlineStr"/>
       <c r="G2394" t="inlineStr"/>
       <c r="H2394" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
       <c r="E2395" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2395" t="inlineStr"/>
@@ -77850,117 +77668,125 @@
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2396" t="inlineStr"/>
       <c r="G2396" t="inlineStr"/>
       <c r="H2396" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
       <c r="E2397" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr"/>
+      <c r="G2397" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2397" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:45 PM</t>
         </is>
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
       <c r="E2398" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2398" t="inlineStr"/>
       <c r="G2398" t="inlineStr"/>
       <c r="H2398" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2399" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
       <c r="E2399" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr"/>
+      <c r="G2399" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2399" t="inlineStr">
         <is>
           <t>3</t>
@@ -77970,27 +77796,31 @@
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2400" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
       <c r="E2400" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2400" t="inlineStr"/>
-      <c r="G2400" t="inlineStr"/>
+      <c r="G2400" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2400" t="inlineStr">
         <is>
           <t>3</t>
@@ -78000,77 +77830,69 @@
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2401" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
-      <c r="E2401" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2401" t="inlineStr"/>
       <c r="F2401" t="inlineStr"/>
       <c r="G2401" t="inlineStr"/>
       <c r="H2401" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2402" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
-      <c r="E2402" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2402" t="inlineStr"/>
       <c r="F2402" t="inlineStr"/>
       <c r="G2402" t="inlineStr"/>
       <c r="H2402" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2403" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
@@ -78086,638 +77908,54 @@
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2404" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
-      <c r="E2404" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2404" t="inlineStr"/>
       <c r="F2404" t="inlineStr"/>
       <c r="G2404" t="inlineStr"/>
       <c r="H2404" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2405">
-      <c r="A2405" t="inlineStr">
-        <is>
-          <t>02:15 PM</t>
-        </is>
-      </c>
+      <c r="A2405" t="inlineStr"/>
       <c r="B2405" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
       <c r="E2405" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2405" t="inlineStr"/>
-      <c r="G2405" t="inlineStr"/>
+      <c r="G2405" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2406">
-      <c r="A2406" t="inlineStr">
-        <is>
-          <t>02:20 PM</t>
-        </is>
-      </c>
-      <c r="B2406" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2406" t="inlineStr">
-        <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2406" t="inlineStr"/>
-      <c r="E2406" t="inlineStr">
-        <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2406" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2406" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="H2406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2407">
-      <c r="A2407" t="inlineStr">
-        <is>
-          <t>02:25 PM</t>
-        </is>
-      </c>
-      <c r="B2407" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2407" t="inlineStr">
-        <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2407" t="inlineStr"/>
-      <c r="E2407" t="inlineStr">
-        <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2407" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2407" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="H2407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2408">
-      <c r="A2408" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B2408" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2408" t="inlineStr">
-        <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2408" t="inlineStr"/>
-      <c r="E2408" t="inlineStr">
-        <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2408" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2408" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="H2408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2409">
-      <c r="A2409" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B2409" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2409" t="inlineStr">
-        <is>
-          <t>ABSA Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2409" t="inlineStr"/>
-      <c r="E2409" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2409" t="inlineStr"/>
-      <c r="G2409" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="H2409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2410">
-      <c r="A2410" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2410" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2410" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2410" t="inlineStr"/>
-      <c r="E2410" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2410" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2410" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="H2410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2411">
-      <c r="A2411" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2411" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2411" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY FlashJAN</t>
-        </is>
-      </c>
-      <c r="D2411" t="inlineStr"/>
-      <c r="E2411" t="inlineStr"/>
-      <c r="F2411" t="inlineStr"/>
-      <c r="G2411" t="inlineStr"/>
-      <c r="H2411" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2412">
-      <c r="A2412" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2412" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2412" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
-        </is>
-      </c>
-      <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F2412" t="inlineStr"/>
-      <c r="G2412" t="inlineStr"/>
-      <c r="H2412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2413">
-      <c r="A2413" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2413" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2413" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FlashJAN</t>
-        </is>
-      </c>
-      <c r="D2413" t="inlineStr"/>
-      <c r="E2413" t="inlineStr"/>
-      <c r="F2413" t="inlineStr"/>
-      <c r="G2413" t="inlineStr"/>
-      <c r="H2413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2414">
-      <c r="A2414" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2414" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2414" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D2414" t="inlineStr"/>
-      <c r="E2414" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
-      <c r="F2414" t="inlineStr"/>
-      <c r="G2414" t="inlineStr"/>
-      <c r="H2414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2415">
-      <c r="A2415" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2415" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2415" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F2415" t="inlineStr"/>
-      <c r="G2415" t="inlineStr"/>
-      <c r="H2415" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2416">
-      <c r="A2416" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2416" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2416" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2416" t="inlineStr"/>
-      <c r="E2416" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2416" t="inlineStr"/>
-      <c r="G2416" t="inlineStr"/>
-      <c r="H2416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2417">
-      <c r="A2417" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2417" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2417" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2417" t="inlineStr"/>
-      <c r="E2417" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2417" t="inlineStr"/>
-      <c r="G2417" t="inlineStr"/>
-      <c r="H2417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2418">
-      <c r="A2418" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2418" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2418" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2418" t="inlineStr"/>
-      <c r="E2418" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F2418" t="inlineStr"/>
-      <c r="G2418" t="inlineStr"/>
-      <c r="H2418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2419">
-      <c r="A2419" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2419" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2419" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesDEC</t>
-        </is>
-      </c>
-      <c r="D2419" t="inlineStr"/>
-      <c r="E2419" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
-      <c r="F2419" t="inlineStr"/>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
-      <c r="H2419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2420">
-      <c r="A2420" t="inlineStr">
-        <is>
-          <t>05:45 PM</t>
-        </is>
-      </c>
-      <c r="B2420" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2420" t="inlineStr">
-        <is>
-          <t>Tax RevenueJAN</t>
-        </is>
-      </c>
-      <c r="D2420" t="inlineStr"/>
-      <c r="E2420" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
-      <c r="F2420" t="inlineStr"/>
-      <c r="G2420" t="inlineStr"/>
-      <c r="H2420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2421">
-      <c r="A2421" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2421" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2421" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2421" t="inlineStr"/>
-      <c r="E2421" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F2421" t="inlineStr"/>
-      <c r="G2421" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H2421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2422">
-      <c r="A2422" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2422" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2422" t="inlineStr">
-        <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2422" t="inlineStr"/>
-      <c r="E2422" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2422" t="inlineStr"/>
-      <c r="G2422" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H2422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2423">
-      <c r="A2423" t="inlineStr"/>
-      <c r="B2423" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2423" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2423" t="inlineStr"/>
-      <c r="E2423" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2423" t="inlineStr"/>
-      <c r="G2423" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2423" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2445"/>
+  <dimension ref="A1:H2423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69519,10 +69519,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2135">
@@ -69549,10 +69547,8 @@
       </c>
       <c r="F2135" t="inlineStr"/>
       <c r="G2135" t="inlineStr"/>
-      <c r="H2135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2136">
@@ -69587,10 +69583,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H2136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2136" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2137">
@@ -69621,10 +69615,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H2137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2138">
@@ -69659,10 +69651,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2139">
@@ -69693,10 +69683,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2140">
@@ -69727,10 +69715,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2141">
@@ -69753,10 +69739,8 @@
       <c r="E2141" t="inlineStr"/>
       <c r="F2141" t="inlineStr"/>
       <c r="G2141" t="inlineStr"/>
-      <c r="H2141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2141" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2142">
@@ -69791,10 +69775,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H2142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2142" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2143">
@@ -69829,10 +69811,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H2143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2143" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2144">
@@ -69863,10 +69843,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H2144" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2144" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2145">
@@ -69897,10 +69875,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H2145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2146">
@@ -69931,10 +69907,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H2146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2147">
@@ -69965,10 +69939,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H2147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2148">
@@ -69995,10 +69967,8 @@
       </c>
       <c r="F2148" t="inlineStr"/>
       <c r="G2148" t="inlineStr"/>
-      <c r="H2148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2149">
@@ -70025,10 +69995,8 @@
       </c>
       <c r="F2149" t="inlineStr"/>
       <c r="G2149" t="inlineStr"/>
-      <c r="H2149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2149" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2150">
@@ -70051,10 +70019,8 @@
       <c r="E2150" t="inlineStr"/>
       <c r="F2150" t="inlineStr"/>
       <c r="G2150" t="inlineStr"/>
-      <c r="H2150" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2150" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2151">
@@ -70081,10 +70047,8 @@
       </c>
       <c r="F2151" t="inlineStr"/>
       <c r="G2151" t="inlineStr"/>
-      <c r="H2151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2151" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2152">
@@ -70111,10 +70075,8 @@
       </c>
       <c r="F2152" t="inlineStr"/>
       <c r="G2152" t="inlineStr"/>
-      <c r="H2152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2152" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2153">
@@ -70155,10 +70117,8 @@
       </c>
       <c r="F2154" t="inlineStr"/>
       <c r="G2154" t="inlineStr"/>
-      <c r="H2154" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2154" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2155">
@@ -70181,10 +70141,8 @@
       <c r="E2155" t="inlineStr"/>
       <c r="F2155" t="inlineStr"/>
       <c r="G2155" t="inlineStr"/>
-      <c r="H2155" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2155" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2156">
@@ -70219,10 +70177,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2156" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2156" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2157">
@@ -70257,10 +70213,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2157" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2157" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2158">
@@ -70295,10 +70249,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2158" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2158" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2159">
@@ -70333,10 +70285,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2159" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2159" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2160">
@@ -70371,10 +70321,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2160" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2160" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2161">
@@ -70405,10 +70353,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H2161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2161" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2162">
@@ -70443,10 +70389,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2162" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2162" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2163">
@@ -70481,10 +70425,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2163" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2163" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2164">
@@ -70511,10 +70453,8 @@
       </c>
       <c r="F2164" t="inlineStr"/>
       <c r="G2164" t="inlineStr"/>
-      <c r="H2164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2164" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2165">
@@ -70549,10 +70489,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H2165" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2165" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2166">
@@ -70587,10 +70525,8 @@
           <t>-21</t>
         </is>
       </c>
-      <c r="H2166" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2167">
@@ -70625,10 +70561,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2167" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2168">
@@ -70659,10 +70593,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H2168" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2169">
@@ -70693,10 +70625,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2169" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2170">
@@ -70731,10 +70661,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2170" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2171">
@@ -70769,10 +70697,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2171" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2172">
@@ -70803,10 +70729,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H2172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2173">
@@ -70837,10 +70761,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2173" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2173" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2174">
@@ -70867,10 +70789,8 @@
       </c>
       <c r="F2174" t="inlineStr"/>
       <c r="G2174" t="inlineStr"/>
-      <c r="H2174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2175">
@@ -70897,10 +70817,8 @@
       </c>
       <c r="F2175" t="inlineStr"/>
       <c r="G2175" t="inlineStr"/>
-      <c r="H2175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2176">
@@ -70927,10 +70845,8 @@
       </c>
       <c r="F2176" t="inlineStr"/>
       <c r="G2176" t="inlineStr"/>
-      <c r="H2176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2177">
@@ -70961,10 +70877,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2177" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2178">
@@ -70991,10 +70905,8 @@
       </c>
       <c r="F2178" t="inlineStr"/>
       <c r="G2178" t="inlineStr"/>
-      <c r="H2178" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2178" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2179">
@@ -71021,10 +70933,8 @@
       </c>
       <c r="F2179" t="inlineStr"/>
       <c r="G2179" t="inlineStr"/>
-      <c r="H2179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2180">
@@ -71051,10 +70961,8 @@
       </c>
       <c r="F2180" t="inlineStr"/>
       <c r="G2180" t="inlineStr"/>
-      <c r="H2180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2181">
@@ -71081,10 +70989,8 @@
       </c>
       <c r="F2181" t="inlineStr"/>
       <c r="G2181" t="inlineStr"/>
-      <c r="H2181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2182">
@@ -71111,10 +71017,8 @@
       </c>
       <c r="F2182" t="inlineStr"/>
       <c r="G2182" t="inlineStr"/>
-      <c r="H2182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2182" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2183">
@@ -71149,10 +71053,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H2183" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2183" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2184">
@@ -71183,10 +71085,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2185">
@@ -71221,10 +71121,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2186">
@@ -71259,10 +71157,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2186" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2186" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2187">
@@ -71285,10 +71181,8 @@
       <c r="E2187" t="inlineStr"/>
       <c r="F2187" t="inlineStr"/>
       <c r="G2187" t="inlineStr"/>
-      <c r="H2187" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2187" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2188">
@@ -71311,10 +71205,8 @@
       <c r="E2188" t="inlineStr"/>
       <c r="F2188" t="inlineStr"/>
       <c r="G2188" t="inlineStr"/>
-      <c r="H2188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2189">
@@ -71341,10 +71233,8 @@
       </c>
       <c r="F2189" t="inlineStr"/>
       <c r="G2189" t="inlineStr"/>
-      <c r="H2189" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2189" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2190">
@@ -71371,10 +71261,8 @@
       </c>
       <c r="F2190" t="inlineStr"/>
       <c r="G2190" t="inlineStr"/>
-      <c r="H2190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2191">
@@ -71401,10 +71289,8 @@
       </c>
       <c r="F2191" t="inlineStr"/>
       <c r="G2191" t="inlineStr"/>
-      <c r="H2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2192">
@@ -71431,10 +71317,8 @@
       </c>
       <c r="F2192" t="inlineStr"/>
       <c r="G2192" t="inlineStr"/>
-      <c r="H2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2193">
@@ -71461,10 +71345,8 @@
       </c>
       <c r="F2193" t="inlineStr"/>
       <c r="G2193" t="inlineStr"/>
-      <c r="H2193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2194">
@@ -71491,10 +71373,8 @@
       </c>
       <c r="F2194" t="inlineStr"/>
       <c r="G2194" t="inlineStr"/>
-      <c r="H2194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2195">
@@ -71521,10 +71401,8 @@
       </c>
       <c r="F2195" t="inlineStr"/>
       <c r="G2195" t="inlineStr"/>
-      <c r="H2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2196">
@@ -71551,10 +71429,8 @@
       </c>
       <c r="F2196" t="inlineStr"/>
       <c r="G2196" t="inlineStr"/>
-      <c r="H2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2197">
@@ -71581,10 +71457,8 @@
       </c>
       <c r="F2197" t="inlineStr"/>
       <c r="G2197" t="inlineStr"/>
-      <c r="H2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2198">
@@ -71615,10 +71489,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2199">
@@ -71649,10 +71521,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2200">
@@ -71679,10 +71549,8 @@
       </c>
       <c r="F2200" t="inlineStr"/>
       <c r="G2200" t="inlineStr"/>
-      <c r="H2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2201">
@@ -71731,10 +71599,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2202" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2202" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2203">
@@ -71757,10 +71623,8 @@
       <c r="E2203" t="inlineStr"/>
       <c r="F2203" t="inlineStr"/>
       <c r="G2203" t="inlineStr"/>
-      <c r="H2203" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2203" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2204">
@@ -71791,10 +71655,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2205">
@@ -71821,10 +71683,8 @@
       </c>
       <c r="F2205" t="inlineStr"/>
       <c r="G2205" t="inlineStr"/>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2206">
@@ -71851,10 +71711,8 @@
       </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2207">
@@ -71885,10 +71743,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2208">
@@ -71911,10 +71767,8 @@
       <c r="E2208" t="inlineStr"/>
       <c r="F2208" t="inlineStr"/>
       <c r="G2208" t="inlineStr"/>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -71945,10 +71799,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2210">
@@ -71983,10 +71835,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2211">
@@ -72009,10 +71859,8 @@
       <c r="E2211" t="inlineStr"/>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2212">
@@ -72043,10 +71891,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2213">
@@ -72073,10 +71919,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -72107,10 +71951,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -72133,10 +71975,8 @@
       <c r="E2215" t="inlineStr"/>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2216">
@@ -72171,10 +72011,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2217">
@@ -72205,10 +72043,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2218">
@@ -72243,10 +72079,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -72281,10 +72115,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -72315,10 +72147,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -72349,10 +72179,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -72383,10 +72211,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2223">
@@ -72421,10 +72247,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2224">
@@ -72455,10 +72279,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -72489,10 +72311,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -72523,10 +72343,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -72561,10 +72379,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2228">
@@ -72599,10 +72415,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2229">
@@ -72637,10 +72451,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2230">
@@ -72671,10 +72483,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2231">
@@ -72705,10 +72515,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2232">
@@ -72739,10 +72547,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2233">
@@ -72773,10 +72579,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2234">
@@ -72811,10 +72615,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -72845,10 +72647,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2236">
@@ -72883,10 +72683,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2237">
@@ -72921,10 +72719,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -72959,10 +72755,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2239">
@@ -72997,10 +72791,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2240">
@@ -73031,10 +72823,8 @@
         </is>
       </c>
       <c r="G2240" t="inlineStr"/>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2241">
@@ -73069,10 +72859,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2242">
@@ -73107,10 +72895,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2243">
@@ -73141,10 +72927,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2244">
@@ -73175,10 +72959,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2245">
@@ -73209,10 +72991,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2246">
@@ -73243,10 +73023,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2247">
@@ -73281,10 +73059,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2248">
@@ -73307,10 +73083,8 @@
       <c r="E2248" t="inlineStr"/>
       <c r="F2248" t="inlineStr"/>
       <c r="G2248" t="inlineStr"/>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -73341,10 +73115,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2250">
@@ -73375,10 +73147,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -73409,10 +73179,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -73435,10 +73203,8 @@
       <c r="E2252" t="inlineStr"/>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr"/>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2253">
@@ -73465,10 +73231,8 @@
       </c>
       <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -73499,10 +73263,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -73533,10 +73295,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2256">
@@ -73567,10 +73327,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2257">
@@ -73601,10 +73359,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2258">
@@ -73639,10 +73395,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -73673,10 +73427,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -73711,10 +73463,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2261">
@@ -73749,10 +73499,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2262">
@@ -73783,10 +73531,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -73817,10 +73563,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -73855,10 +73599,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2265">
@@ -73893,10 +73635,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2266">
@@ -73931,10 +73671,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2267">
@@ -73965,10 +73703,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -73999,10 +73735,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2269">
@@ -74033,10 +73767,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2270">
@@ -74067,10 +73799,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -74101,10 +73831,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -74135,10 +73863,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -74161,10 +73887,8 @@
       <c r="E2273" t="inlineStr"/>
       <c r="F2273" t="inlineStr"/>
       <c r="G2273" t="inlineStr"/>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2274">
@@ -74199,10 +73923,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2275">
@@ -74233,10 +73955,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -74263,10 +73983,8 @@
       </c>
       <c r="F2276" t="inlineStr"/>
       <c r="G2276" t="inlineStr"/>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2277">
@@ -74293,10 +74011,8 @@
       </c>
       <c r="F2277" t="inlineStr"/>
       <c r="G2277" t="inlineStr"/>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2278">
@@ -74323,10 +74039,8 @@
       </c>
       <c r="F2278" t="inlineStr"/>
       <c r="G2278" t="inlineStr"/>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
@@ -74353,10 +74067,8 @@
       </c>
       <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr"/>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2280">
@@ -74383,10 +74095,8 @@
       </c>
       <c r="F2280" t="inlineStr"/>
       <c r="G2280" t="inlineStr"/>
-      <c r="H2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2281">
@@ -74413,10 +74123,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2282">
@@ -74443,10 +74151,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2283">
@@ -74473,10 +74179,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2284">
@@ -74499,10 +74203,8 @@
       </c>
       <c r="F2284" t="inlineStr"/>
       <c r="G2284" t="inlineStr"/>
-      <c r="H2284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2285">
@@ -74525,10 +74227,8 @@
       </c>
       <c r="F2285" t="inlineStr"/>
       <c r="G2285" t="inlineStr"/>
-      <c r="H2285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2286">
@@ -74555,86 +74255,108 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2287" t="inlineStr"/>
-      <c r="C2287" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
       <c r="D2287" t="inlineStr"/>
-      <c r="E2287" t="inlineStr"/>
-      <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
-      <c r="H2287" t="inlineStr"/>
+      <c r="E2287" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F2287" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2287" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>$6.88T</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr"/>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H2288" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
       <c r="E2289" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2289" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>$-7.46B</t>
+        </is>
+      </c>
+      <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>$-8.82B</t>
         </is>
       </c>
       <c r="H2289" t="inlineStr">
@@ -74646,33 +74368,33 @@
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
       <c r="E2290" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$22.29B</t>
         </is>
       </c>
       <c r="F2290" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$23.46B</t>
         </is>
       </c>
       <c r="G2290" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$ 23.46B</t>
         </is>
       </c>
       <c r="H2290" t="inlineStr">
@@ -74684,33 +74406,29 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2291" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>$29.75B</t>
+        </is>
+      </c>
+      <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>$32.29B</t>
         </is>
       </c>
       <c r="H2291" t="inlineStr">
@@ -74722,29 +74440,29 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F2292" t="inlineStr"/>
       <c r="G2292" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>$ 23.5B</t>
         </is>
       </c>
       <c r="H2292" t="inlineStr">
@@ -74756,67 +74474,63 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
       <c r="G2293" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H2293" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr"/>
       <c r="G2294" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2294" t="inlineStr">
@@ -74828,101 +74542,101 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="F2296" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2296" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2296" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2296" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
@@ -74934,67 +74648,63 @@
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2298" t="inlineStr"/>
       <c r="G2298" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H2298" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="F2299" t="inlineStr"/>
+      <c r="G2299" t="inlineStr">
+        <is>
           <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2299" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G2299" t="inlineStr">
-        <is>
-          <t>0.4%</t>
         </is>
       </c>
       <c r="H2299" t="inlineStr">
@@ -75006,29 +74716,29 @@
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
       <c r="E2300" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2300" t="inlineStr"/>
       <c r="G2300" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2300" t="inlineStr">
@@ -75040,29 +74750,29 @@
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2301" t="inlineStr">
@@ -75074,29 +74784,29 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2302" t="inlineStr">
@@ -75108,31 +74818,27 @@
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
-      <c r="G2303" t="inlineStr">
-        <is>
-          <t>S$ 818.2B</t>
-        </is>
-      </c>
+      <c r="G2303" t="inlineStr"/>
       <c r="H2303" t="inlineStr">
         <is>
           <t>3</t>
@@ -75142,93 +74848,105 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>0.602%</t>
-        </is>
-      </c>
-      <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr"/>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="F2304" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G2304" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
-      <c r="G2305" t="inlineStr"/>
+      <c r="G2305" t="inlineStr">
+        <is>
+          <t>2.876M</t>
+        </is>
+      </c>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="G2306" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2306" t="inlineStr">
@@ -75240,65 +74958,53 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>-10.2%</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+      <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -75308,7 +75014,7 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
@@ -75318,35 +75024,27 @@
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
       <c r="E2309" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2309" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2309" t="inlineStr"/>
+      <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
@@ -75356,93 +75054,77 @@
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
       <c r="E2311" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2311" t="inlineStr"/>
-      <c r="G2311" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
       <c r="E2312" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2312" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2312" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2312" t="inlineStr"/>
+      <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
         <is>
           <t>3</t>
@@ -75452,31 +75134,27 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2313" t="inlineStr"/>
-      <c r="G2313" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2313" t="inlineStr"/>
       <c r="H2313" t="inlineStr">
         <is>
           <t>3</t>
@@ -75486,31 +75164,27 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2314" t="inlineStr"/>
-      <c r="G2314" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
           <t>3</t>
@@ -75520,171 +75194,147 @@
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2316" t="inlineStr"/>
-      <c r="G2316" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2316" t="inlineStr"/>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2318" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2318" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2318" t="inlineStr"/>
+      <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
           <t>3</t>
@@ -75694,29 +75344,29 @@
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2320" t="inlineStr"/>
       <c r="G2320" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2320" t="inlineStr">
@@ -75728,12 +75378,12 @@
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
@@ -75744,13 +75394,13 @@
       <c r="D2321" t="inlineStr"/>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2321" t="inlineStr"/>
       <c r="G2321" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2321" t="inlineStr">
@@ -75762,12 +75412,12 @@
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
@@ -75778,13 +75428,13 @@
       <c r="D2322" t="inlineStr"/>
       <c r="E2322" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2322" t="inlineStr">
@@ -75796,29 +75446,29 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
       <c r="E2323" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>INR-9700.0B</t>
         </is>
       </c>
       <c r="H2323" t="inlineStr">
@@ -75830,29 +75480,29 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
       <c r="E2324" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2324" t="inlineStr">
@@ -75864,27 +75514,31 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2325" t="inlineStr"/>
-      <c r="G2325" t="inlineStr"/>
+      <c r="G2325" t="inlineStr">
+        <is>
+          <t>BRL-103.0B</t>
+        </is>
+      </c>
       <c r="H2325" t="inlineStr">
         <is>
           <t>3</t>
@@ -75894,203 +75548,199 @@
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F2326" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="G2326" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="F2326" t="inlineStr"/>
+      <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
-      <c r="G2327" t="inlineStr">
-        <is>
-          <t>2.876M</t>
-        </is>
-      </c>
+      <c r="G2327" t="inlineStr"/>
       <c r="H2327" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2328" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>$623.98B</t>
+        </is>
+      </c>
+      <c r="F2328" t="inlineStr"/>
+      <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr"/>
+      <c r="E2329" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="F2329" t="inlineStr"/>
-      <c r="G2329" t="inlineStr"/>
+      <c r="G2329" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H2329" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
       <c r="E2330" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr"/>
+      <c r="G2330" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
-      <c r="G2331" t="inlineStr"/>
+      <c r="G2331" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H2331" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
@@ -76100,27 +75750,35 @@
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2332" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G2332" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2332" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
@@ -76130,27 +75788,35 @@
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2333" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2333" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2333" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
@@ -76160,17 +75826,21 @@
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr"/>
+      <c r="G2334" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2334" t="inlineStr">
         <is>
           <t>3</t>
@@ -76180,7 +75850,7 @@
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
@@ -76190,17 +75860,25 @@
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2335" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G2335" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2335" t="inlineStr">
         <is>
           <t>3</t>
@@ -76210,379 +75888,415 @@
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2336" t="inlineStr"/>
-      <c r="G2336" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2336" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2336" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2336" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr"/>
+      <c r="G2337" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2338" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2338" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2339" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2339" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr">
         <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2340" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2340" t="inlineStr">
+        <is>
           <t>0.5%</t>
         </is>
       </c>
-      <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr"/>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
+      <c r="G2341" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2341" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2342" t="inlineStr"/>
       <c r="G2342" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F2343" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2343" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G2343" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="E2344" t="inlineStr"/>
       <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2344" t="inlineStr"/>
       <c r="H2344" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr">
         <is>
-          <t>INR-9700.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2345" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
       <c r="G2346" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2346" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2347" t="inlineStr"/>
       <c r="G2347" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H2347" t="inlineStr">
@@ -76594,57 +76308,69 @@
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2348" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H2348" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
+      <c r="G2349" t="inlineStr">
+        <is>
+          <t>C$-1.9B</t>
+        </is>
+      </c>
       <c r="H2349" t="inlineStr">
         <is>
           <t>3</t>
@@ -76654,23 +76380,23 @@
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>$623.98B</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
@@ -76684,31 +76410,27 @@
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2351" t="inlineStr"/>
-      <c r="G2351" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2351" t="inlineStr"/>
       <c r="H2351" t="inlineStr">
         <is>
           <t>3</t>
@@ -76716,87 +76438,75 @@
       </c>
     </row>
     <row r="2352">
-      <c r="A2352" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2352" t="inlineStr"/>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>MXN-1064.93B</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr"/>
       <c r="G2352" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>MXN-1120.0B</t>
         </is>
       </c>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2353">
-      <c r="A2353" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2353" t="inlineStr"/>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
       <c r="G2353" t="inlineStr">
         <is>
-          <t>ZAR 27.0B</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2353" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2354">
-      <c r="A2354" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2354" t="inlineStr"/>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
@@ -76805,86 +76515,70 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="F2354" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="F2354" t="inlineStr"/>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2355">
-      <c r="A2355" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2355" t="inlineStr"/>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2355" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2355" t="inlineStr"/>
       <c r="G2355" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2356">
-      <c r="A2356" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2356" t="inlineStr"/>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2356" t="inlineStr"/>
       <c r="G2356" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2356" t="inlineStr">
@@ -76894,35 +76588,27 @@
       </c>
     </row>
     <row r="2357">
-      <c r="A2357" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2357" t="inlineStr"/>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2357" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>-4.9%</t>
+        </is>
+      </c>
+      <c r="F2357" t="inlineStr"/>
       <c r="G2357" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2357" t="inlineStr">
@@ -76932,253 +76618,189 @@
       </c>
     </row>
     <row r="2358">
-      <c r="A2358" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2358" t="inlineStr"/>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2358" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F2358" t="inlineStr"/>
       <c r="G2358" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2358" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2359" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2359" t="inlineStr">
-        <is>
-          <t>GDP MoM PrelDEC</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2359" t="inlineStr"/>
+      <c r="C2359" t="inlineStr"/>
       <c r="D2359" t="inlineStr"/>
-      <c r="E2359" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="E2359" t="inlineStr"/>
       <c r="F2359" t="inlineStr"/>
-      <c r="G2359" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2359" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2359" t="inlineStr"/>
+      <c r="H2359" t="inlineStr"/>
     </row>
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2360" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="F2360" t="inlineStr"/>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2361" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F2361" t="inlineStr"/>
       <c r="G2361" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H2361" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2362" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F2362" t="inlineStr"/>
       <c r="G2362" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2363" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2363" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2363" t="inlineStr"/>
+      <c r="C2363" t="inlineStr"/>
       <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E2363" t="inlineStr"/>
       <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2363" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2363" t="inlineStr"/>
+      <c r="H2363" t="inlineStr"/>
     </row>
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2364" t="inlineStr"/>
       <c r="H2364" t="inlineStr">
         <is>
           <t>2</t>
@@ -77188,129 +76810,125 @@
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2365" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F2365" t="inlineStr"/>
       <c r="G2365" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2365" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr"/>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
+      <c r="G2366" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2366" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
       <c r="G2367" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2367" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="E2368" t="inlineStr"/>
       <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G2368" t="inlineStr"/>
       <c r="H2368" t="inlineStr">
         <is>
           <t>2</t>
@@ -77320,67 +76938,63 @@
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2370" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2370" t="inlineStr">
@@ -77392,31 +77006,27 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
-      <c r="G2371" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
+      <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr">
         <is>
           <t>3</t>
@@ -77426,21 +77036,25 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
-      <c r="E2372" t="inlineStr"/>
+      <c r="E2372" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="F2372" t="inlineStr"/>
       <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
@@ -77452,23 +77066,31 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
-      <c r="E2373" t="inlineStr"/>
+      <c r="E2373" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2373" t="inlineStr"/>
-      <c r="G2373" t="inlineStr"/>
+      <c r="G2373" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="H2373" t="inlineStr">
         <is>
           <t>3</t>
@@ -77476,147 +77098,175 @@
       </c>
     </row>
     <row r="2374">
-      <c r="A2374" t="inlineStr"/>
+      <c r="A2374" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>Fiscal BalanceDEC</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2374" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2374" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="G2374" t="inlineStr">
         <is>
-          <t>MXN-1120.0B</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2375">
-      <c r="A2375" t="inlineStr"/>
+      <c r="A2375" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2375" t="inlineStr"/>
       <c r="G2375" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2375" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2376">
-      <c r="A2376" t="inlineStr"/>
+      <c r="A2376" t="inlineStr">
+        <is>
+          <t>07:15 AM</t>
+        </is>
+      </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2376" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2376" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2377">
-      <c r="A2377" t="inlineStr"/>
+      <c r="A2377" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr"/>
       <c r="G2377" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2378">
-      <c r="A2378" t="inlineStr"/>
+      <c r="A2378" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
       <c r="E2378" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F2378" t="inlineStr"/>
       <c r="G2378" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H2378" t="inlineStr">
@@ -77626,27 +77276,31 @@
       </c>
     </row>
     <row r="2379">
-      <c r="A2379" t="inlineStr"/>
+      <c r="A2379" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F2379" t="inlineStr"/>
       <c r="G2379" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2379" t="inlineStr">
@@ -77656,27 +77310,31 @@
       </c>
     </row>
     <row r="2380">
-      <c r="A2380" t="inlineStr"/>
+      <c r="A2380" t="inlineStr">
+        <is>
+          <t>10:15 AM</t>
+        </is>
+      </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
       <c r="E2380" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H2380" t="inlineStr">
@@ -77688,21 +77346,45 @@
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2381" t="inlineStr"/>
-      <c r="C2381" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr"/>
-      <c r="F2381" t="inlineStr"/>
-      <c r="G2381" t="inlineStr"/>
-      <c r="H2381" t="inlineStr"/>
+      <c r="E2381" t="inlineStr">
+        <is>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2381" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G2381" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H2381" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
@@ -77712,55 +77394,47 @@
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
       <c r="E2382" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F2382" t="inlineStr"/>
-      <c r="G2382" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
       <c r="E2383" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2383" t="inlineStr"/>
-      <c r="G2383" t="inlineStr">
-        <is>
-          <t>$0.9B</t>
-        </is>
-      </c>
+      <c r="G2383" t="inlineStr"/>
       <c r="H2383" t="inlineStr">
         <is>
           <t>3</t>
@@ -77770,71 +77444,83 @@
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2384" t="inlineStr"/>
-      <c r="G2384" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2384" t="inlineStr"/>
       <c r="H2384" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2385" t="inlineStr"/>
-      <c r="C2385" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2385" t="inlineStr"/>
-      <c r="E2385" t="inlineStr"/>
+      <c r="E2385" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2385" t="inlineStr"/>
       <c r="G2385" t="inlineStr"/>
-      <c r="H2385" t="inlineStr"/>
+      <c r="H2385" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2386" t="inlineStr"/>
@@ -77848,31 +77534,27 @@
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2387" t="inlineStr"/>
       <c r="H2387" t="inlineStr">
         <is>
           <t>3</t>
@@ -77882,31 +77564,27 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2388" t="inlineStr"/>
-      <c r="G2388" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2388" t="inlineStr"/>
       <c r="H2388" t="inlineStr">
         <is>
           <t>3</t>
@@ -77916,31 +77594,27 @@
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
       <c r="E2389" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2389" t="inlineStr"/>
-      <c r="G2389" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2389" t="inlineStr"/>
       <c r="H2389" t="inlineStr">
         <is>
           <t>3</t>
@@ -77950,21 +77624,25 @@
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
-      <c r="E2390" t="inlineStr"/>
+      <c r="E2390" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr"/>
       <c r="H2390" t="inlineStr">
@@ -77976,65 +77654,53 @@
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
-      <c r="E2391" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2391" t="inlineStr"/>
       <c r="F2391" t="inlineStr"/>
-      <c r="G2391" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2391" t="inlineStr"/>
       <c r="H2391" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2392" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
       <c r="E2392" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2392" t="inlineStr"/>
-      <c r="G2392" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2392" t="inlineStr"/>
       <c r="H2392" t="inlineStr">
         <is>
           <t>2</t>
@@ -78044,127 +77710,139 @@
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
       <c r="E2393" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2393" t="inlineStr"/>
       <c r="G2393" t="inlineStr"/>
       <c r="H2393" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
       <c r="E2394" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2394" t="inlineStr"/>
-      <c r="G2394" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2394" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2394" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2394" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
       <c r="E2395" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2395" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2395" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2395" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2395" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2396" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2396" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2396" t="inlineStr">
@@ -78176,205 +77854,181 @@
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
       <c r="E2397" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2397" t="inlineStr"/>
       <c r="G2397" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2397" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
       <c r="E2398" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2398" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2398" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2398" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2399" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2399" t="inlineStr"/>
       <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2399" t="inlineStr"/>
       <c r="H2399" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2400" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
       <c r="E2400" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2400" t="inlineStr"/>
-      <c r="G2400" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2400" t="inlineStr"/>
       <c r="H2400" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2401" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
-      <c r="E2401" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2401" t="inlineStr"/>
       <c r="F2401" t="inlineStr"/>
-      <c r="G2401" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2401" t="inlineStr"/>
       <c r="H2401" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2402" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
       <c r="E2402" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2402" t="inlineStr"/>
-      <c r="G2402" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2402" t="inlineStr"/>
       <c r="H2402" t="inlineStr">
         <is>
           <t>3</t>
@@ -78384,91 +78038,83 @@
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2403" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
       <c r="E2403" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2403" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2403" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2403" t="inlineStr"/>
+      <c r="G2403" t="inlineStr"/>
       <c r="H2403" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2404" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
       <c r="E2404" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2404" t="inlineStr"/>
       <c r="G2404" t="inlineStr"/>
       <c r="H2404" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2405" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
       <c r="E2405" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2405" t="inlineStr"/>
@@ -78482,117 +78128,129 @@
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2406" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2406" t="inlineStr"/>
       <c r="E2406" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2406" t="inlineStr"/>
       <c r="G2406" t="inlineStr"/>
       <c r="H2406" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2407" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2407" t="inlineStr"/>
       <c r="E2407" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2407" t="inlineStr"/>
-      <c r="G2407" t="inlineStr"/>
+      <c r="G2407" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2407" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2408">
       <c r="A2408" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2408" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2408" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2408" t="inlineStr"/>
       <c r="E2408" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2408" t="inlineStr"/>
-      <c r="G2408" t="inlineStr"/>
+      <c r="G2408" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2408" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2409">
       <c r="A2409" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2409" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2409" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2409" t="inlineStr"/>
       <c r="E2409" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2409" t="inlineStr"/>
-      <c r="G2409" t="inlineStr"/>
+      <c r="G2409" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2409" t="inlineStr">
         <is>
           <t>3</t>
@@ -78602,55 +78260,47 @@
     <row r="2410">
       <c r="A2410" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2410" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2410" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2410" t="inlineStr"/>
-      <c r="E2410" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2410" t="inlineStr"/>
       <c r="F2410" t="inlineStr"/>
       <c r="G2410" t="inlineStr"/>
       <c r="H2410" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2411">
       <c r="A2411" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2411" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2411" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2411" t="inlineStr"/>
-      <c r="E2411" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2411" t="inlineStr"/>
       <c r="F2411" t="inlineStr"/>
       <c r="G2411" t="inlineStr"/>
       <c r="H2411" t="inlineStr">
@@ -78662,47 +78312,43 @@
     <row r="2412">
       <c r="A2412" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2412" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2412" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2412" t="inlineStr"/>
       <c r="F2412" t="inlineStr"/>
       <c r="G2412" t="inlineStr"/>
       <c r="H2412" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2413">
       <c r="A2413" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2413" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2413" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2413" t="inlineStr"/>
@@ -78718,23 +78364,23 @@
     <row r="2414">
       <c r="A2414" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2414" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2414" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2414" t="inlineStr"/>
       <c r="E2414" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2414" t="inlineStr"/>
@@ -78748,27 +78394,35 @@
     <row r="2415">
       <c r="A2415" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2415" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2415" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2415" t="inlineStr"/>
       <c r="E2415" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2415" t="inlineStr"/>
-      <c r="G2415" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2415" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2415" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2415" t="inlineStr">
         <is>
           <t>2</t>
@@ -78778,73 +78432,57 @@
     <row r="2416">
       <c r="A2416" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2416" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2416" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2416" t="inlineStr"/>
       <c r="E2416" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2416" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2416" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2416" t="inlineStr"/>
+      <c r="G2416" t="inlineStr"/>
       <c r="H2416" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2417">
       <c r="A2417" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2417" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2417" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2417" t="inlineStr"/>
       <c r="E2417" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2417" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2417" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2417" t="inlineStr"/>
+      <c r="G2417" t="inlineStr"/>
       <c r="H2417" t="inlineStr">
         <is>
           <t>2</t>
@@ -78854,69 +78492,57 @@
     <row r="2418">
       <c r="A2418" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2418" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2418" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2418" t="inlineStr"/>
       <c r="E2418" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2418" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2418" t="inlineStr"/>
       <c r="G2418" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2418" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2419">
       <c r="A2419" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2419" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2419" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2419" t="inlineStr"/>
-      <c r="E2419" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2419" t="inlineStr"/>
       <c r="F2419" t="inlineStr"/>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2419" t="inlineStr"/>
       <c r="H2419" t="inlineStr">
         <is>
           <t>3</t>
@@ -78926,55 +78552,43 @@
     <row r="2420">
       <c r="A2420" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2420" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2420" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2420" t="inlineStr"/>
-      <c r="E2420" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2420" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2420" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2420" t="inlineStr"/>
+      <c r="F2420" t="inlineStr"/>
+      <c r="G2420" t="inlineStr"/>
       <c r="H2420" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2421">
       <c r="A2421" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2421" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2421" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2421" t="inlineStr"/>
@@ -78983,713 +78597,61 @@
       <c r="G2421" t="inlineStr"/>
       <c r="H2421" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2422">
       <c r="A2422" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2422" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2422" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2422" t="inlineStr"/>
-      <c r="E2422" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2422" t="inlineStr"/>
       <c r="F2422" t="inlineStr"/>
       <c r="G2422" t="inlineStr"/>
       <c r="H2422" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2423">
-      <c r="A2423" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2423" t="inlineStr"/>
       <c r="B2423" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2423" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2423" t="inlineStr"/>
-      <c r="E2423" t="inlineStr"/>
+      <c r="E2423" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2423" t="inlineStr"/>
-      <c r="G2423" t="inlineStr"/>
+      <c r="G2423" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2424">
-      <c r="A2424" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2424" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2424" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D2424" t="inlineStr"/>
-      <c r="E2424" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
-      <c r="F2424" t="inlineStr"/>
-      <c r="G2424" t="inlineStr"/>
-      <c r="H2424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2425">
-      <c r="A2425" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2425" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2425" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2425" t="inlineStr"/>
-      <c r="E2425" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F2425" t="inlineStr"/>
-      <c r="G2425" t="inlineStr"/>
-      <c r="H2425" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2426">
-      <c r="A2426" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2426" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2426" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2426" t="inlineStr"/>
-      <c r="E2426" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2426" t="inlineStr"/>
-      <c r="G2426" t="inlineStr"/>
-      <c r="H2426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2427">
-      <c r="A2427" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2427" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2427" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2427" t="inlineStr"/>
-      <c r="E2427" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2427" t="inlineStr"/>
-      <c r="G2427" t="inlineStr"/>
-      <c r="H2427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2428">
-      <c r="A2428" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2428" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2428" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2428" t="inlineStr"/>
-      <c r="E2428" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F2428" t="inlineStr"/>
-      <c r="G2428" t="inlineStr"/>
-      <c r="H2428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2429">
-      <c r="A2429" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2429" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2429" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesDEC</t>
-        </is>
-      </c>
-      <c r="D2429" t="inlineStr"/>
-      <c r="E2429" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
-      <c r="F2429" t="inlineStr"/>
-      <c r="G2429" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
-      <c r="H2429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2430">
-      <c r="A2430" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2430" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2430" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2430" t="inlineStr"/>
-      <c r="E2430" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F2430" t="inlineStr"/>
-      <c r="G2430" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H2430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2431">
-      <c r="A2431" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2431" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2431" t="inlineStr">
-        <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2431" t="inlineStr"/>
-      <c r="E2431" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2431" t="inlineStr"/>
-      <c r="G2431" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H2431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2432">
-      <c r="A2432" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2432" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2432" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2432" t="inlineStr"/>
-      <c r="E2432" t="inlineStr"/>
-      <c r="F2432" t="inlineStr"/>
-      <c r="G2432" t="inlineStr"/>
-      <c r="H2432" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2433">
-      <c r="A2433" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2433" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2433" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2433" t="inlineStr"/>
-      <c r="E2433" t="inlineStr"/>
-      <c r="F2433" t="inlineStr"/>
-      <c r="G2433" t="inlineStr"/>
-      <c r="H2433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2434">
-      <c r="A2434" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2434" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2434" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2434" t="inlineStr"/>
-      <c r="E2434" t="inlineStr"/>
-      <c r="F2434" t="inlineStr"/>
-      <c r="G2434" t="inlineStr"/>
-      <c r="H2434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2435">
-      <c r="A2435" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2435" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2435" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2435" t="inlineStr"/>
-      <c r="E2435" t="inlineStr"/>
-      <c r="F2435" t="inlineStr"/>
-      <c r="G2435" t="inlineStr"/>
-      <c r="H2435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2436">
-      <c r="A2436" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2436" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2436" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2436" t="inlineStr"/>
-      <c r="E2436" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2436" t="inlineStr"/>
-      <c r="G2436" t="inlineStr"/>
-      <c r="H2436" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2437">
-      <c r="A2437" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2437" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2437" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2437" t="inlineStr"/>
-      <c r="E2437" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2437" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2437" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="H2437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2438">
-      <c r="A2438" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2438" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2438" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2438" t="inlineStr"/>
-      <c r="E2438" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2438" t="inlineStr"/>
-      <c r="G2438" t="inlineStr"/>
-      <c r="H2438" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2439">
-      <c r="A2439" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2439" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2439" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D2439" t="inlineStr"/>
-      <c r="E2439" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="F2439" t="inlineStr"/>
-      <c r="G2439" t="inlineStr"/>
-      <c r="H2439" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2440">
-      <c r="A2440" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2440" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2440" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2440" t="inlineStr"/>
-      <c r="E2440" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2440" t="inlineStr"/>
-      <c r="G2440" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2441">
-      <c r="A2441" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2441" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2441" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D2441" t="inlineStr"/>
-      <c r="E2441" t="inlineStr"/>
-      <c r="F2441" t="inlineStr"/>
-      <c r="G2441" t="inlineStr"/>
-      <c r="H2441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2442">
-      <c r="A2442" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2442" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2442" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2442" t="inlineStr"/>
-      <c r="E2442" t="inlineStr"/>
-      <c r="F2442" t="inlineStr"/>
-      <c r="G2442" t="inlineStr"/>
-      <c r="H2442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2443">
-      <c r="A2443" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2443" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2443" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2443" t="inlineStr"/>
-      <c r="E2443" t="inlineStr"/>
-      <c r="F2443" t="inlineStr"/>
-      <c r="G2443" t="inlineStr"/>
-      <c r="H2443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2444">
-      <c r="A2444" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2444" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2444" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2444" t="inlineStr"/>
-      <c r="E2444" t="inlineStr"/>
-      <c r="F2444" t="inlineStr"/>
-      <c r="G2444" t="inlineStr"/>
-      <c r="H2444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2445">
-      <c r="A2445" t="inlineStr"/>
-      <c r="B2445" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2445" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2445" t="inlineStr"/>
-      <c r="E2445" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2445" t="inlineStr"/>
-      <c r="G2445" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2445" t="inlineStr">
         <is>
           <t>3</t>
         </is>
